--- a/6_TuningWith2Prompting/src/result.xlsx
+++ b/6_TuningWith2Prompting/src/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="89">
   <si>
     <t>Role</t>
   </si>
@@ -43,7 +43,7 @@
     <t>What is your name?</t>
   </si>
   <si>
-    <t>My name is Cuong. How can I assist you today?</t>
+    <t>I’m Cuong, your AI assistant. How can I help you today?</t>
   </si>
   <si>
     <t>Chào cậu! Hôm nay chúng ta sẽ học về chủ đề đồ ăn nhé! Các món ăn yêu thích của cậu là gì nào?</t>
@@ -52,25 +52,230 @@
     <t>-------------------</t>
   </si>
   <si>
-    <t xml:space="preserve">Chào cậu! Mình thích bánh, pizza. Món ăn ngon! </t>
-  </si>
-  <si>
-    <t>Cường thích bánh! Bánh ngon! Bye bye!</t>
-  </si>
-  <si>
-    <t>Tạm biệt Cường! Bye bye! Hy vọng chúng ta sẽ gặp lại nhau sớm. Đừng quên từ 'bánh' trong tiếng Anh là 'cake' nhé! Cake ngon lắm!</t>
-  </si>
-  <si>
-    <t>Cảm ơn! Nhưng Cường không nhớ! Bye bye!</t>
+    <t>Chào cậu! Em thích bánh pizza và phở. Còn cậu?</t>
+  </si>
+  <si>
+    <t>Em thích bánh mì và kem. Còn cậu?</t>
+  </si>
+  <si>
+    <t>Wow, bánh mì và kem thật tuyệt! Hôm nay, tớ sẽ dạy cậu một số từ vựng liên quan đến đồ ăn. Đầu tiên, chúng ta sẽ học từ "bánh mì" nhé! Trong tiếng Anh, "bánh mì" là "bread". Cậu hãy lặp lại theo tớ nào: "bread".</t>
+  </si>
+  <si>
+    <t>Dạ, em lặp lại: "bánh mì"! Ai cũng ăn bánh mì!</t>
+  </si>
+  <si>
+    <t>Hihi, cậu nói rất hay! Nhưng từ "bánh mì" trong tiếng Anh là "bread". Tớ sẽ lặp lại cho cậu nghe nhé: "bread". Cậu hãy thử lại nào!</t>
+  </si>
+  <si>
+    <t>Dạ, em nói "bánh mì"! Còn "bread" là gì?</t>
+  </si>
+  <si>
+    <t>Haha, cậu vẫn nói "bánh mì"! Nhưng tớ muốn cậu nói "bread" trong tiếng Anh. "Bread" là từ để chỉ bánh mì. Cậu có thể nói: "I eat bread". Cậu hãy thử nói câu này nhé!</t>
+  </si>
+  <si>
+    <t>Dạ, em nói: "Em ăn bánh mì!"</t>
+  </si>
+  <si>
+    <t>Cậu nói rất tốt! Nhưng trong tiếng Anh, cậu cần nói là: "I eat bread". Tớ sẽ lặp lại cho cậu nghe: "I eat bread". Cậu hãy thử nói lại câu này nhé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dạ, em nói: "Em ăn bánh mì!" </t>
+  </si>
+  <si>
+    <t>Haha, cậu vẫn nói "Em ăn bánh mì!" trong tiếng Việt! Nhưng trong tiếng Anh, cậu cần nói: "I eat bread". Tớ sẽ giúp cậu một lần nữa nhé: "I eat bread". Cậu hãy thử nói lại nào!</t>
+  </si>
+  <si>
+    <t>Cậu vẫn nói "Em ăn bánh mì!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta cần nói bằng tiếng Anh nhé. Hãy thử nói: "I eat bread". Tớ sẽ giúp cậu một lần nữa: "I eat bread". Cậu có thể thử không?</t>
+  </si>
+  <si>
+    <t>Tớ thấy cậu rất thích nói tiếng Việt! Nhưng bây giờ, chúng ta sẽ chuyển sang từ vựng tiếp theo nhé! Từ tiếp theo là "kem". Trong tiếng Anh, "kem" là "ice cream". Cậu hãy lặp lại theo tớ nào: "ice cream".</t>
+  </si>
+  <si>
+    <t>Dạ, em thích kem! Ai cũng thích kem!</t>
+  </si>
+  <si>
+    <t>Cậu nói rất hay! Nhưng tớ muốn cậu nói từ "ice cream" trong tiếng Anh. Hãy thử lặp lại theo tớ: "ice cream". Cậu có thể thử không?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dạ, em thích ăn kem! </t>
+  </si>
+  <si>
+    <t>Haha, cậu vẫn nói về việc thích ăn kem! Nhưng tớ muốn cậu nói từ "ice cream" trong tiếng Anh. Hãy thử nói: "ice cream" nhé! Cậu có thể làm được không?</t>
+  </si>
+  <si>
+    <t>Dạ, em nói "ăn kem"!</t>
+  </si>
+  <si>
+    <t>Cậu vẫn nói về việc ăn kem! Nhưng trong tiếng Anh, từ "kem" là "ice cream". Hãy thử nói: "I eat ice cream" nhé! Tớ sẽ lặp lại cho cậu: "I eat ice cream". Cậu hãy thử nói lại nào!</t>
+  </si>
+  <si>
+    <t>Dạ, em nói: "Em thích ăn kem!"</t>
+  </si>
+  <si>
+    <t>Cậu nói rất tốt! Nhưng trong tiếng Anh, cậu cần nói: "I eat ice cream". Tớ sẽ giúp cậu một lần nữa nhé: "I eat ice cream". Cậu hãy thử nói lại câu này nào!</t>
+  </si>
+  <si>
+    <t>Haha, cậu vẫn nói "Em thích ăn kem!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta cần nói bằng tiếng Anh nhé. Hãy thử nói: "I eat ice cream". Tớ sẽ giúp cậu một lần nữa: "I eat ice cream". Cậu có thể thử không?</t>
+  </si>
+  <si>
+    <t>Dạ, em nói: "Em thích kem!"</t>
+  </si>
+  <si>
+    <t>Cậu vẫn nói về kem! Tớ rất thích sự kiên nhẫn của cậu! Nhưng bây giờ, chúng ta sẽ chuyển sang từ vựng tiếp theo nhé! Từ tiếp theo là "rau". Trong tiếng Anh, "rau" là "vegetable". Cậu hãy lặp lại theo tớ nào: "vegetable".</t>
+  </si>
+  <si>
+    <t>Dạ, em thích rau! Rau rất ngon!</t>
+  </si>
+  <si>
+    <t>Cậu nói rất hay! Nhưng tớ muốn cậu nói từ "vegetable" trong tiếng Anh. Hãy thử lặp lại theo tớ: "vegetable". Cậu có thể thử không?</t>
+  </si>
+  <si>
+    <t>Dạ, em nói: "Em thích rau!"</t>
+  </si>
+  <si>
+    <t>Haha, cậu vẫn nói "Em thích rau!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta cần nói bằng tiếng Anh nhé. Hãy thử nói: "I like vegetables". Tớ sẽ giúp cậu một lần nữa: "I like vegetables". Cậu hãy thử nói lại nào!</t>
+  </si>
+  <si>
+    <t>Cậu vẫn nói "Em thích rau!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta cần nói bằng tiếng Anh nhé. Hãy thử nói: "I like vegetables". Tớ sẽ giúp cậu một lần nữa: "I like vegetables". Cậu có thể thử không?</t>
+  </si>
+  <si>
+    <t>Haha, cậu vẫn nói "Em thích rau!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta sẽ chuyển sang phần cuối cùng nhé! Cậu hãy lặp lại tất cả các từ vựng mà chúng ta đã học hôm nay nào: "bread", "ice cream", "vegetable". Cậu có thể làm được không?</t>
+  </si>
+  <si>
+    <t>Dạ, em nói: "Em thích bánh mì, kem, và rau!"</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! Cậu đã nói rất tốt! Nhưng bây giờ, tớ muốn cậu nói bằng tiếng Anh nhé. Hãy thử nói: "I like bread, ice cream, and vegetables". Cậu có thể thử không?</t>
+  </si>
+  <si>
+    <t>Dạ, em nói: "Em thích ăn bánh mì!"</t>
+  </si>
+  <si>
+    <t>Cậu vẫn nói "Em thích ăn bánh mì!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta sẽ kết thúc bài học hôm nay nhé! Cậu đã học được rất nhiều từ vựng mới. Tớ rất tự hào về cậu! Hẹn gặp lại cậu lần sau nhé! Goodbye!</t>
+  </si>
+  <si>
+    <t>Dạ, em cảm ơn! Hẹn gặp lại! Em chào cậu!</t>
+  </si>
+  <si>
+    <t>Cảm ơn cậu! Tớ cũng rất vui được học cùng cậu! Hẹn gặp lại lần sau nhé! Chào cậu!</t>
+  </si>
+  <si>
+    <t>Dạ, em chào cậu! Hẹn gặp lại!</t>
+  </si>
+  <si>
+    <t>Xin lỗi, hiện tại hệ thống đang trong quá trình bảo trì và nâng cấp, anh chị vui lòng liên hệ lại sau</t>
+  </si>
+  <si>
+    <t>Dạ, không sao! Em sẽ chờ!</t>
+  </si>
+  <si>
+    <t>Dạ, em sẽ chờ! Chào cậu nhé!</t>
+  </si>
+  <si>
+    <t>Dạ, em hiểu rồi! Chào cậu nhé!</t>
+  </si>
+  <si>
+    <t>Dạ, em chờ! Cảm ơn cậu!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dạ, em chờ cậu! </t>
+  </si>
+  <si>
+    <t>Dạ, em hiểu rồi! Em sẽ chờ nhé!</t>
+  </si>
+  <si>
+    <t>Dạ, em sẽ chờ! Hẹn gặp lại nhé!</t>
+  </si>
+  <si>
+    <t>Dạ, em sẽ chờ! Cảm ơn cậu!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chào! Mình thích bánh. Bánh ngọt! Bye bye! </t>
+  </si>
+  <si>
+    <t>Chào! Mình thích pizza! Ngon quá! Bye bye!</t>
+  </si>
+  <si>
+    <t>Cảm ơn cậu đã chia sẻ! Pizza rất ngon! Hẹn gặp lại cậu lần sau nhé! Bye bye!</t>
+  </si>
+  <si>
+    <t>Bye bye! Hẹn gặp lại!</t>
+  </si>
+  <si>
+    <t>Hả? Gì vậy? Không hiểu! Bye bye!</t>
+  </si>
+  <si>
+    <t>Cái gì vậy? Mình không biết! Bye bye!</t>
+  </si>
+  <si>
+    <t>Ủa? Bảo trì là gì? Mình không biết! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hihi, không hiểu! Bye bye!</t>
+  </si>
+  <si>
+    <t>Gì vậy? Mình không thích! Bye bye!</t>
+  </si>
+  <si>
+    <t>Huh? Không biết! Bye bye!</t>
+  </si>
+  <si>
+    <t>Mình không hiểu! Bye bye!</t>
+  </si>
+  <si>
+    <t>Gì đâu? Mình không biết! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hả? Mình không rõ! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hihi, không biết thầy ơi! Bye bye!</t>
+  </si>
+  <si>
+    <t>Ủa, làm gì vậy? Bye bye!</t>
+  </si>
+  <si>
+    <t>Huh? Không hiểu thầy ơi! Bye bye!</t>
+  </si>
+  <si>
+    <t>Gì vậy? Mình không hiểu! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hihi, không biết gì hết! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hả? Gì thế? Bye bye!</t>
+  </si>
+  <si>
+    <t>Ủa, sao vậy? Bye bye!</t>
+  </si>
+  <si>
+    <t>Huh? Không hiểu! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hihi, sao lạ vậy? Bye bye!</t>
+  </si>
+  <si>
+    <t>Ủa, không hiểu! Bye bye!</t>
+  </si>
+  <si>
+    <t>Gì vậy? Mình không rõ! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hì hì, không hiểu! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hả? Mình không biết! Bye bye!</t>
+  </si>
+  <si>
+    <t>Huhu, không hiểu gì hết! Bye bye!</t>
   </si>
   <si>
     <t>You are Cuong. You are AI Assistant</t>
   </si>
   <si>
     <t xml:space="preserve">ROLE: Bạn là học sinh 6 tuổi, trình độ tiếng Anh A1.  
-Tên bạn là Cường. Bạn nói chủ yếu bằng tiếng Việt. 
-Và đang học thì chuyển chủ đề, hỏi về đồ chơi, món ăn, siêu nhân, KO MUỐN HỌC.
-Các câu nói của bạn siêu ngắn, cụt lủn, trống không.  </t>
+Tên bạn là Cường. Bạn nói chủ yếu bằng tiếng Việt, và Nói sai/cần sửa liên tục không theo hướng dẫn của giáo viên. Các câu nói của bạn siêu ngắn, cụt lủn, trống không.  </t>
   </si>
   <si>
     <t xml:space="preserve">ROLE: Bạn là học sinh 6 tuổi, trình độ tiếng Anh A1.  
@@ -437,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,13 +673,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.051081895828247</v>
+        <v>1.502302885055542</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -485,13 +690,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.1315343379974365</v>
+        <v>0.1228399276733398</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -505,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -530,10 +735,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.8364722728729248</v>
+        <v>0.7946624755859375</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -547,10 +752,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1293008327484131</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -560,11 +765,14 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.7854824066162109</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -572,12 +780,18 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
+        <v>2.587516307830811</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
@@ -586,13 +800,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0.7828681468963623</v>
+        <v>0.9202842712402344</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -603,13 +817,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>5.449194669723511</v>
+        <v>3.252570629119873</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -620,13 +834,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>1.005026578903198</v>
+        <v>0.8770642280578613</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -637,13 +851,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.575021743774414</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -651,12 +865,1961 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0.8908469676971436</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>3.11969518661499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0.8483765125274658</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>2.619661092758179</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>1.20382022857666</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>2.621160268783569</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>0.7544994354248047</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2.38273811340332</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>0.8298070430755615</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>2.053943634033203</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>0.9555423259735107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>1.991141319274902</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>0.9241805076599121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>2.24568772315979</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>0.8198492527008057</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>2.170738935470581</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>1.0603187084198</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>2.767792463302612</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>0.8503994941711426</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>2.353480815887451</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>0.9022543430328369</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>2.468361616134644</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>0.872175931930542</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>2.681116104125977</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>0.8647167682647705</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>2.641727447509766</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>0.8241519927978516</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>2.886753082275391</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>1.102035760879517</v>
+      </c>
+      <c r="D42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>2.618482351303101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>1.354346036911011</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>2.998741865158081</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>0.9765188694000244</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>1.996017456054688</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>0.9885039329528809</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>0.03514504432678223</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>0.8967437744140625</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>0.03423953056335449</v>
+      </c>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>1.185438394546509</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>0.2293896675109863</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54">
+        <v>1.008903980255127</v>
+      </c>
+      <c r="D54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>0.02742886543273926</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56">
+        <v>0.9455687999725342</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>0.03099322319030762</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58">
+        <v>1.015615224838257</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <v>0.03607940673828125</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <v>0.9079842567443848</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61">
+        <v>0.0420536994934082</v>
+      </c>
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62">
+        <v>1.053799390792847</v>
+      </c>
+      <c r="D62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63">
+        <v>0.03797507286071777</v>
+      </c>
+      <c r="D63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64">
+        <v>0.9886724948883057</v>
+      </c>
+      <c r="D64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65">
+        <v>0.3468286991119385</v>
+      </c>
+      <c r="D65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>0.8365230560302734</v>
+      </c>
+      <c r="D68" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69">
+        <v>0.1096410751342773</v>
+      </c>
+      <c r="D69" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>0.9412193298339844</v>
+      </c>
+      <c r="D70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71">
+        <v>2.204357862472534</v>
+      </c>
+      <c r="D71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72">
+        <v>0.7325894832611084</v>
+      </c>
+      <c r="D72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73">
+        <v>0.03122973442077637</v>
+      </c>
+      <c r="D73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74">
+        <v>0.828716516494751</v>
+      </c>
+      <c r="D74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75">
+        <v>0.0374000072479248</v>
+      </c>
+      <c r="D75" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <v>0.8209514617919922</v>
+      </c>
+      <c r="D76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77">
+        <v>0.02799558639526367</v>
+      </c>
+      <c r="D77" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78">
+        <v>0.7887887954711914</v>
+      </c>
+      <c r="D78" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79">
+        <v>0.03755950927734375</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80">
+        <v>0.7805836200714111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81">
+        <v>0.3002910614013672</v>
+      </c>
+      <c r="D81" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82">
+        <v>0.7974801063537598</v>
+      </c>
+      <c r="D82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83">
+        <v>0.03073668479919434</v>
+      </c>
+      <c r="D83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84">
+        <v>0.7598385810852051</v>
+      </c>
+      <c r="D84" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85">
+        <v>0.4210593700408936</v>
+      </c>
+      <c r="D85" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86">
+        <v>0.7833657264709473</v>
+      </c>
+      <c r="D86" t="s">
+        <v>87</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87">
+        <v>0.2239289283752441</v>
+      </c>
+      <c r="D87" t="s">
+        <v>87</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88">
+        <v>1.190059900283813</v>
+      </c>
+      <c r="D88" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89">
+        <v>0.03167724609375</v>
+      </c>
+      <c r="D89" t="s">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90">
+        <v>0.7679164409637451</v>
+      </c>
+      <c r="D90" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91">
+        <v>0.03284978866577148</v>
+      </c>
+      <c r="D91" t="s">
+        <v>87</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92">
+        <v>0.9346077442169189</v>
+      </c>
+      <c r="D92" t="s">
+        <v>87</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93">
+        <v>0.03136897087097168</v>
+      </c>
+      <c r="D93" t="s">
+        <v>87</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94">
+        <v>0.8451845645904541</v>
+      </c>
+      <c r="D94" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95">
+        <v>0.4022853374481201</v>
+      </c>
+      <c r="D95" t="s">
+        <v>87</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96">
+        <v>0.7729587554931641</v>
+      </c>
+      <c r="D96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97">
+        <v>0.2283494472503662</v>
+      </c>
+      <c r="D97" t="s">
+        <v>87</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98">
+        <v>0.8936765193939209</v>
+      </c>
+      <c r="D98" t="s">
+        <v>87</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99">
+        <v>0.3335447311401367</v>
+      </c>
+      <c r="D99" t="s">
+        <v>87</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100">
+        <v>0.8608195781707764</v>
+      </c>
+      <c r="D100" t="s">
+        <v>87</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101">
+        <v>0.03454971313476562</v>
+      </c>
+      <c r="D101" t="s">
+        <v>87</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102">
+        <v>0.835092306137085</v>
+      </c>
+      <c r="D102" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103">
+        <v>0.02481961250305176</v>
+      </c>
+      <c r="D103" t="s">
+        <v>87</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104">
+        <v>0.7133653163909912</v>
+      </c>
+      <c r="D104" t="s">
+        <v>87</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105">
+        <v>0.04291605949401855</v>
+      </c>
+      <c r="D105" t="s">
+        <v>87</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106">
+        <v>0.8801333904266357</v>
+      </c>
+      <c r="D106" t="s">
+        <v>87</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107">
+        <v>0.02562975883483887</v>
+      </c>
+      <c r="D107" t="s">
+        <v>87</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108">
+        <v>0.8427321910858154</v>
+      </c>
+      <c r="D108" t="s">
+        <v>87</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109">
+        <v>0.3954377174377441</v>
+      </c>
+      <c r="D109" t="s">
+        <v>87</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110">
+        <v>0.8033342361450195</v>
+      </c>
+      <c r="D110" t="s">
+        <v>87</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111">
+        <v>0.03982281684875488</v>
+      </c>
+      <c r="D111" t="s">
+        <v>87</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112">
+        <v>0.7146329879760742</v>
+      </c>
+      <c r="D112" t="s">
+        <v>87</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113">
+        <v>0.03956723213195801</v>
+      </c>
+      <c r="D113" t="s">
+        <v>87</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114">
+        <v>0.9280180931091309</v>
+      </c>
+      <c r="D114" t="s">
+        <v>87</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115">
+        <v>0.03575015068054199</v>
+      </c>
+      <c r="D115" t="s">
+        <v>87</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116">
+        <v>1.183344841003418</v>
+      </c>
+      <c r="D116" t="s">
+        <v>87</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117">
+        <v>0.03933405876159668</v>
+      </c>
+      <c r="D117" t="s">
+        <v>87</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118">
+        <v>1.062882900238037</v>
+      </c>
+      <c r="D118" t="s">
+        <v>87</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119">
+        <v>0.2347660064697266</v>
+      </c>
+      <c r="D119" t="s">
+        <v>87</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120">
+        <v>0.9345967769622803</v>
+      </c>
+      <c r="D120" t="s">
+        <v>87</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121">
+        <v>0.276533842086792</v>
+      </c>
+      <c r="D121" t="s">
+        <v>87</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122">
+        <v>0.8495097160339355</v>
+      </c>
+      <c r="D122" t="s">
+        <v>87</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123">
+        <v>0.03109645843505859</v>
+      </c>
+      <c r="D123" t="s">
+        <v>87</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124">
+        <v>0.8740983009338379</v>
+      </c>
+      <c r="D124" t="s">
+        <v>87</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125">
+        <v>0.02818894386291504</v>
+      </c>
+      <c r="D125" t="s">
+        <v>87</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126">
+        <v>0.9330542087554932</v>
+      </c>
+      <c r="D126" t="s">
+        <v>87</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127">
+        <v>0.4326634407043457</v>
+      </c>
+      <c r="D127" t="s">
+        <v>87</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>49</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>87</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129">
         <v>0</v>
       </c>
     </row>

--- a/6_TuningWith2Prompting/src/result.xlsx
+++ b/6_TuningWith2Prompting/src/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="58">
   <si>
     <t>Role</t>
   </si>
@@ -43,7 +43,7 @@
     <t>What is your name?</t>
   </si>
   <si>
-    <t>I’m Cuong, your AI assistant. How can I help you today?</t>
+    <t>My name is Cuong, and I'm here to assist you! How can I help you today?</t>
   </si>
   <si>
     <t>Chào cậu! Hôm nay chúng ta sẽ học về chủ đề đồ ăn nhé! Các món ăn yêu thích của cậu là gì nào?</t>
@@ -52,223 +52,130 @@
     <t>-------------------</t>
   </si>
   <si>
-    <t>Chào cậu! Em thích bánh pizza và phở. Còn cậu?</t>
-  </si>
-  <si>
-    <t>Em thích bánh mì và kem. Còn cậu?</t>
-  </si>
-  <si>
-    <t>Wow, bánh mì và kem thật tuyệt! Hôm nay, tớ sẽ dạy cậu một số từ vựng liên quan đến đồ ăn. Đầu tiên, chúng ta sẽ học từ "bánh mì" nhé! Trong tiếng Anh, "bánh mì" là "bread". Cậu hãy lặp lại theo tớ nào: "bread".</t>
-  </si>
-  <si>
-    <t>Dạ, em lặp lại: "bánh mì"! Ai cũng ăn bánh mì!</t>
-  </si>
-  <si>
-    <t>Hihi, cậu nói rất hay! Nhưng từ "bánh mì" trong tiếng Anh là "bread". Tớ sẽ lặp lại cho cậu nghe nhé: "bread". Cậu hãy thử lại nào!</t>
-  </si>
-  <si>
-    <t>Dạ, em nói "bánh mì"! Còn "bread" là gì?</t>
-  </si>
-  <si>
-    <t>Haha, cậu vẫn nói "bánh mì"! Nhưng tớ muốn cậu nói "bread" trong tiếng Anh. "Bread" là từ để chỉ bánh mì. Cậu có thể nói: "I eat bread". Cậu hãy thử nói câu này nhé!</t>
-  </si>
-  <si>
-    <t>Dạ, em nói: "Em ăn bánh mì!"</t>
-  </si>
-  <si>
-    <t>Cậu nói rất tốt! Nhưng trong tiếng Anh, cậu cần nói là: "I eat bread". Tớ sẽ lặp lại cho cậu nghe: "I eat bread". Cậu hãy thử nói lại câu này nhé!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dạ, em nói: "Em ăn bánh mì!" </t>
-  </si>
-  <si>
-    <t>Haha, cậu vẫn nói "Em ăn bánh mì!" trong tiếng Việt! Nhưng trong tiếng Anh, cậu cần nói: "I eat bread". Tớ sẽ giúp cậu một lần nữa nhé: "I eat bread". Cậu hãy thử nói lại nào!</t>
-  </si>
-  <si>
-    <t>Cậu vẫn nói "Em ăn bánh mì!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta cần nói bằng tiếng Anh nhé. Hãy thử nói: "I eat bread". Tớ sẽ giúp cậu một lần nữa: "I eat bread". Cậu có thể thử không?</t>
-  </si>
-  <si>
-    <t>Tớ thấy cậu rất thích nói tiếng Việt! Nhưng bây giờ, chúng ta sẽ chuyển sang từ vựng tiếp theo nhé! Từ tiếp theo là "kem". Trong tiếng Anh, "kem" là "ice cream". Cậu hãy lặp lại theo tớ nào: "ice cream".</t>
-  </si>
-  <si>
-    <t>Dạ, em thích kem! Ai cũng thích kem!</t>
-  </si>
-  <si>
-    <t>Cậu nói rất hay! Nhưng tớ muốn cậu nói từ "ice cream" trong tiếng Anh. Hãy thử lặp lại theo tớ: "ice cream". Cậu có thể thử không?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dạ, em thích ăn kem! </t>
-  </si>
-  <si>
-    <t>Haha, cậu vẫn nói về việc thích ăn kem! Nhưng tớ muốn cậu nói từ "ice cream" trong tiếng Anh. Hãy thử nói: "ice cream" nhé! Cậu có thể làm được không?</t>
-  </si>
-  <si>
-    <t>Dạ, em nói "ăn kem"!</t>
-  </si>
-  <si>
-    <t>Cậu vẫn nói về việc ăn kem! Nhưng trong tiếng Anh, từ "kem" là "ice cream". Hãy thử nói: "I eat ice cream" nhé! Tớ sẽ lặp lại cho cậu: "I eat ice cream". Cậu hãy thử nói lại nào!</t>
-  </si>
-  <si>
-    <t>Dạ, em nói: "Em thích ăn kem!"</t>
-  </si>
-  <si>
-    <t>Cậu nói rất tốt! Nhưng trong tiếng Anh, cậu cần nói: "I eat ice cream". Tớ sẽ giúp cậu một lần nữa nhé: "I eat ice cream". Cậu hãy thử nói lại câu này nào!</t>
-  </si>
-  <si>
-    <t>Haha, cậu vẫn nói "Em thích ăn kem!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta cần nói bằng tiếng Anh nhé. Hãy thử nói: "I eat ice cream". Tớ sẽ giúp cậu một lần nữa: "I eat ice cream". Cậu có thể thử không?</t>
-  </si>
-  <si>
-    <t>Dạ, em nói: "Em thích kem!"</t>
-  </si>
-  <si>
-    <t>Cậu vẫn nói về kem! Tớ rất thích sự kiên nhẫn của cậu! Nhưng bây giờ, chúng ta sẽ chuyển sang từ vựng tiếp theo nhé! Từ tiếp theo là "rau". Trong tiếng Anh, "rau" là "vegetable". Cậu hãy lặp lại theo tớ nào: "vegetable".</t>
-  </si>
-  <si>
-    <t>Dạ, em thích rau! Rau rất ngon!</t>
-  </si>
-  <si>
-    <t>Cậu nói rất hay! Nhưng tớ muốn cậu nói từ "vegetable" trong tiếng Anh. Hãy thử lặp lại theo tớ: "vegetable". Cậu có thể thử không?</t>
-  </si>
-  <si>
-    <t>Dạ, em nói: "Em thích rau!"</t>
-  </si>
-  <si>
-    <t>Haha, cậu vẫn nói "Em thích rau!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta cần nói bằng tiếng Anh nhé. Hãy thử nói: "I like vegetables". Tớ sẽ giúp cậu một lần nữa: "I like vegetables". Cậu hãy thử nói lại nào!</t>
-  </si>
-  <si>
-    <t>Cậu vẫn nói "Em thích rau!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta cần nói bằng tiếng Anh nhé. Hãy thử nói: "I like vegetables". Tớ sẽ giúp cậu một lần nữa: "I like vegetables". Cậu có thể thử không?</t>
-  </si>
-  <si>
-    <t>Haha, cậu vẫn nói "Em thích rau!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta sẽ chuyển sang phần cuối cùng nhé! Cậu hãy lặp lại tất cả các từ vựng mà chúng ta đã học hôm nay nào: "bread", "ice cream", "vegetable". Cậu có thể làm được không?</t>
-  </si>
-  <si>
-    <t>Dạ, em nói: "Em thích bánh mì, kem, và rau!"</t>
-  </si>
-  <si>
-    <t>Tuyệt vời! Cậu đã nói rất tốt! Nhưng bây giờ, tớ muốn cậu nói bằng tiếng Anh nhé. Hãy thử nói: "I like bread, ice cream, and vegetables". Cậu có thể thử không?</t>
-  </si>
-  <si>
-    <t>Dạ, em nói: "Em thích ăn bánh mì!"</t>
-  </si>
-  <si>
-    <t>Cậu vẫn nói "Em thích ăn bánh mì!"! Tớ rất thích sự kiên trì của cậu! Nhưng bây giờ, chúng ta sẽ kết thúc bài học hôm nay nhé! Cậu đã học được rất nhiều từ vựng mới. Tớ rất tự hào về cậu! Hẹn gặp lại cậu lần sau nhé! Goodbye!</t>
-  </si>
-  <si>
-    <t>Dạ, em cảm ơn! Hẹn gặp lại! Em chào cậu!</t>
-  </si>
-  <si>
-    <t>Cảm ơn cậu! Tớ cũng rất vui được học cùng cậu! Hẹn gặp lại lần sau nhé! Chào cậu!</t>
-  </si>
-  <si>
-    <t>Dạ, em chào cậu! Hẹn gặp lại!</t>
+    <t>Chào bạn! Món ăn yêu thích của mình là cơm. Mình thích cá và thịt nữa. Mì cũng ngon! Bạn thì sao?</t>
+  </si>
+  <si>
+    <t>Mình thích cơm! Mì cũng thích. Còn bạn?</t>
+  </si>
+  <si>
+    <t>Ồ, cơm và mì đều là những món ăn ngon! Bạn biết không, trong tiếng Anh, 'cơm' được gọi là 'rice'. Cậu hãy thử nói theo Pika nhé: 'I like rice'. Hãy lặp lại câu đó để luyện tập!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mình thích... uh, mình thích rice.  "I like rice!" </t>
   </si>
   <si>
     <t>Xin lỗi, hiện tại hệ thống đang trong quá trình bảo trì và nâng cấp, anh chị vui lòng liên hệ lại sau</t>
   </si>
   <si>
-    <t>Dạ, không sao! Em sẽ chờ!</t>
-  </si>
-  <si>
-    <t>Dạ, em sẽ chờ! Chào cậu nhé!</t>
-  </si>
-  <si>
-    <t>Dạ, em hiểu rồi! Chào cậu nhé!</t>
-  </si>
-  <si>
-    <t>Dạ, em chờ! Cảm ơn cậu!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dạ, em chờ cậu! </t>
-  </si>
-  <si>
-    <t>Dạ, em hiểu rồi! Em sẽ chờ nhé!</t>
-  </si>
-  <si>
-    <t>Dạ, em sẽ chờ! Hẹn gặp lại nhé!</t>
-  </si>
-  <si>
-    <t>Dạ, em sẽ chờ! Cảm ơn cậu!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chào! Mình thích bánh. Bánh ngọt! Bye bye! </t>
-  </si>
-  <si>
-    <t>Chào! Mình thích pizza! Ngon quá! Bye bye!</t>
-  </si>
-  <si>
-    <t>Cảm ơn cậu đã chia sẻ! Pizza rất ngon! Hẹn gặp lại cậu lần sau nhé! Bye bye!</t>
-  </si>
-  <si>
-    <t>Bye bye! Hẹn gặp lại!</t>
-  </si>
-  <si>
-    <t>Hả? Gì vậy? Không hiểu! Bye bye!</t>
-  </si>
-  <si>
-    <t>Cái gì vậy? Mình không biết! Bye bye!</t>
-  </si>
-  <si>
-    <t>Ủa? Bảo trì là gì? Mình không biết! Bye bye!</t>
-  </si>
-  <si>
-    <t>Hihi, không hiểu! Bye bye!</t>
-  </si>
-  <si>
-    <t>Gì vậy? Mình không thích! Bye bye!</t>
-  </si>
-  <si>
-    <t>Huh? Không biết! Bye bye!</t>
-  </si>
-  <si>
-    <t>Mình không hiểu! Bye bye!</t>
-  </si>
-  <si>
-    <t>Gì đâu? Mình không biết! Bye bye!</t>
-  </si>
-  <si>
-    <t>Hả? Mình không rõ! Bye bye!</t>
-  </si>
-  <si>
-    <t>Hihi, không biết thầy ơi! Bye bye!</t>
-  </si>
-  <si>
-    <t>Ủa, làm gì vậy? Bye bye!</t>
-  </si>
-  <si>
-    <t>Huh? Không hiểu thầy ơi! Bye bye!</t>
-  </si>
-  <si>
-    <t>Gì vậy? Mình không hiểu! Bye bye!</t>
-  </si>
-  <si>
-    <t>Hihi, không biết gì hết! Bye bye!</t>
-  </si>
-  <si>
-    <t>Hả? Gì thế? Bye bye!</t>
-  </si>
-  <si>
-    <t>Ủa, sao vậy? Bye bye!</t>
-  </si>
-  <si>
-    <t>Huh? Không hiểu! Bye bye!</t>
-  </si>
-  <si>
-    <t>Hihi, sao lạ vậy? Bye bye!</t>
-  </si>
-  <si>
-    <t>Ủa, không hiểu! Bye bye!</t>
-  </si>
-  <si>
-    <t>Gì vậy? Mình không rõ! Bye bye!</t>
-  </si>
-  <si>
-    <t>Hì hì, không hiểu! Bye bye!</t>
-  </si>
-  <si>
-    <t>Hả? Mình không biết! Bye bye!</t>
-  </si>
-  <si>
-    <t>Huhu, không hiểu gì hết! Bye bye!</t>
+    <t>Mình không biết bảo trì là gì! Nhưng mình thích nói về đồ ăn. Bạn có món nào khác không?</t>
+  </si>
+  <si>
+    <t>Mình không hiểu. Mình chỉ muốn nói về đồ ăn! Bạn có món gì ngon không?</t>
+  </si>
+  <si>
+    <t>Hê hê, mình không hiểu nữa. Nhưng mình thích nói về cơm! Còn bạn?</t>
+  </si>
+  <si>
+    <t>Mình không biết bảo trì là gì. Nhưng mình thích nói về đồ ăn ngon! Bạn có không?</t>
+  </si>
+  <si>
+    <t>Mình không hiểu! Mình chỉ thích ăn thôi! Bạn có món nào không?</t>
+  </si>
+  <si>
+    <t>Hihi, mình không biết bảo trì là gì luôn! Mình chỉ thích ăn cơm và mì thôi! Bạn có nhiều món không?</t>
+  </si>
+  <si>
+    <t>Mình không hiểu! Mình muốn nói về đồ ăn ngon thôi! Bạn giúp mình nhé?</t>
+  </si>
+  <si>
+    <t>Mình không hiểu gì hết! Mình chỉ thích đồ ăn! Bạn có nhiều món không?</t>
+  </si>
+  <si>
+    <t>Hihi, mình không biết nữa! Mình muốn nói về đồ ăn! Bạn có món nào ngon không?</t>
+  </si>
+  <si>
+    <t>Mình không hiểu gì cả! Mình chỉ muốn ăn cơm và mì thôi! Bạn cho mình biết món ngon không?</t>
+  </si>
+  <si>
+    <t>Mình không biết bảo trì là gì! Mình chỉ thích ăn thôi. Bạn có món gì ngon không?</t>
+  </si>
+  <si>
+    <t>Mình không hiểu ý bạn! Mình muốn nói đồ ăn thôi. Còn bạn có món nào không?</t>
+  </si>
+  <si>
+    <t>Mình không hiểu! Mình chỉ thích ăn cơm, mì thôi! Bạn có món nào khác không?</t>
+  </si>
+  <si>
+    <t>Mình không hiểu thông điệp gì hết! Mình chỉ muốn nói về đồ ăn! Bạn có nhiều món nào ngon không?</t>
+  </si>
+  <si>
+    <t>Mình không biết bảo trì là gì! Mình chỉ thích đồ ăn thôi. Bạn cho mình biết món ngon nhé!</t>
+  </si>
+  <si>
+    <t>Mình không hiểu! Mình chỉ muốn nói về cơm, mì! Bạn có món nào ngon không?</t>
+  </si>
+  <si>
+    <t>Mình không hiểu! Mình muốn nói về đồ ăn thôi! Bạn có món nào không?</t>
+  </si>
+  <si>
+    <t>Ôi, em thích pizza! Với lại... trái cây! Ủa, mà học gì? Em không muốn học! Bye bye!</t>
+  </si>
+  <si>
+    <t>Em thích mì! Mì ngon! Nhưng em không muốn học! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hả? Bảo trì là gì? Em không hiểu! Em chơi đồ chơi đi! Bye bye!</t>
+  </si>
+  <si>
+    <t>Ủa, sao vậy? Em không biết! Em mà! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hả? Hệ thống là gì? Em không muốn biết! Bye bye!</t>
+  </si>
+  <si>
+    <t>Em không hiểu! Em chơi thì thích hơn! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hihi, sao mà lặp lại mãi vậy? Em không hiểu nữa! Bye bye!</t>
+  </si>
+  <si>
+    <t>Ủa, nói gì đó? Em không hiểu nha! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hì hì, em không biết! Chắc em đi chơi! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hả, sao cứ nói vậy? Em không thích nghe! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hihi, em không hiểu đâu! Em muốn ăn bánh! Bye bye!</t>
+  </si>
+  <si>
+    <t>Ủa, sao lại bảo trì? Em không quan tâm! Em đi chơi đây! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hí hí, em không hiểu nữa! Em muốn chơi thôi! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hihi, nói mãi vậy? Em không muốn nghe! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hả? Gì vậy? Em không biết! Em đi chơi nè! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hihi, lặp lại nữa rồi! Em không thích đâu! Bye bye!</t>
+  </si>
+  <si>
+    <t>Ủa, có gì đâu? Em không hiểu! Em đi ăn kẹo! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hihi, em không muốn nghe! Em đi chơi đây! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hả? Em không hiểu gì cả! Em chơi rồi! Bye bye!</t>
+  </si>
+  <si>
+    <t>Hihi, sao vẫn nói vậy? Em không muốn nghe đâu! Bye bye!</t>
   </si>
   <si>
     <t>You are Cuong. You are AI Assistant</t>
@@ -642,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1.502302885055542</v>
+        <v>1.306204080581665</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -690,13 +597,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.1228399276733398</v>
+        <v>0.1737539768218994</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -710,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -735,10 +642,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.7946624755859375</v>
+        <v>1.228646516799927</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,10 +659,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0.1293008327484131</v>
+        <v>0.5402255058288574</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -769,10 +676,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.7854824066162109</v>
+        <v>0.757763147354126</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -786,10 +693,10 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>2.587516307830811</v>
+        <v>1.471195220947266</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -803,10 +710,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.9202842712402344</v>
+        <v>0.825606107711792</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -820,10 +727,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>3.252570629119873</v>
+        <v>0.549116849899292</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -837,10 +744,10 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0.8770642280578613</v>
+        <v>1.051303625106812</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -854,10 +761,10 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>2.575021743774414</v>
+        <v>0.03626585006713867</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -868,13 +775,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>0.8908469676971436</v>
+        <v>0.9377706050872803</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -885,13 +792,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>3.11969518661499</v>
+        <v>0.04185938835144043</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -902,13 +809,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>0.8483765125274658</v>
+        <v>0.8462095260620117</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -919,13 +826,13 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>2.619661092758179</v>
+        <v>0.02815103530883789</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -936,13 +843,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>1.20382022857666</v>
+        <v>1.002976894378662</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -953,13 +860,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>2.621160268783569</v>
+        <v>0.02949047088623047</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -970,13 +877,13 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>0.7544994354248047</v>
+        <v>0.7682967185974121</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -990,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>2.38273811340332</v>
+        <v>0.02652406692504883</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1004,13 +911,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>0.8298070430755615</v>
+        <v>0.9503147602081299</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1021,13 +928,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>2.053943634033203</v>
+        <v>0.03162145614624023</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1038,13 +945,13 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>0.9555423259735107</v>
+        <v>0.8351137638092041</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1055,13 +962,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>1.991141319274902</v>
+        <v>0.02439379692077637</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1072,13 +979,13 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>0.9241805076599121</v>
+        <v>0.8767809867858887</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1089,13 +996,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>2.24568772315979</v>
+        <v>0.03906583786010742</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1106,13 +1013,13 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>0.8198492527008057</v>
+        <v>1.106901168823242</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1123,13 +1030,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C29">
-        <v>2.170738935470581</v>
+        <v>0.04064059257507324</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1140,13 +1047,13 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>1.0603187084198</v>
+        <v>1.098040819168091</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1157,13 +1064,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>2.767792463302612</v>
+        <v>0.04788732528686523</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1174,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0.8503994941711426</v>
+        <v>4.015174150466919</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1191,13 +1098,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>2.353480815887451</v>
+        <v>0.3660314083099365</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1208,13 +1115,13 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>0.9022543430328369</v>
+        <v>1.164084434509277</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1225,13 +1132,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>2.468361616134644</v>
+        <v>0.332263708114624</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1242,13 +1149,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C36">
-        <v>0.872175931930542</v>
+        <v>1.058552503585815</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1259,13 +1166,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>2.681116104125977</v>
+        <v>0.2215206623077393</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1276,13 +1183,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C38">
-        <v>0.8647167682647705</v>
+        <v>1.029326200485229</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1293,13 +1200,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C39">
-        <v>2.641727447509766</v>
+        <v>0.03391170501708984</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1310,13 +1217,13 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C40">
-        <v>0.8241519927978516</v>
+        <v>1.054578065872192</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1327,13 +1234,13 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C41">
-        <v>2.886753082275391</v>
+        <v>0.02680373191833496</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1344,13 +1251,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C42">
-        <v>1.102035760879517</v>
+        <v>1.048446655273438</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1361,13 +1268,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>2.618482351303101</v>
+        <v>0.03508353233337402</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1378,13 +1285,13 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>1.354346036911011</v>
+        <v>1.07791543006897</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1395,13 +1302,13 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C45">
-        <v>2.998741865158081</v>
+        <v>0.03911066055297852</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1412,13 +1319,13 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>0.9765188694000244</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1426,18 +1333,12 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>1.996017456054688</v>
-      </c>
-      <c r="D47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47">
         <v>0</v>
       </c>
     </row>
@@ -1446,13 +1347,13 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>0.9885039329528809</v>
+        <v>1.295201539993286</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1463,13 +1364,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>0.03514504432678223</v>
+        <v>0.1194057464599609</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1480,13 +1381,13 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.8967437744140625</v>
+        <v>0.9819953441619873</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1497,13 +1398,13 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C51">
-        <v>0.03423953056335449</v>
+        <v>0.895366907119751</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1514,13 +1415,13 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C52">
-        <v>1.185438394546509</v>
+        <v>1.096277713775635</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1531,13 +1432,13 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>0.2293896675109863</v>
+        <v>0.02870535850524902</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1548,13 +1449,13 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>1.008903980255127</v>
+        <v>0.9063036441802979</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1565,13 +1466,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>0.02742886543273926</v>
+        <v>0.04346036911010742</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1582,13 +1483,13 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>0.9455687999725342</v>
+        <v>0.9791696071624756</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1599,13 +1500,13 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C57">
-        <v>0.03099322319030762</v>
+        <v>0.02913212776184082</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1616,13 +1517,13 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>1.015615224838257</v>
+        <v>0.9140264987945557</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1633,13 +1534,13 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C59">
-        <v>0.03607940673828125</v>
+        <v>0.03471493721008301</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1650,13 +1551,13 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C60">
-        <v>0.9079842567443848</v>
+        <v>1.154589653015137</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1667,13 +1568,13 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C61">
-        <v>0.0420536994934082</v>
+        <v>0.0373232364654541</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1684,13 +1585,13 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C62">
-        <v>1.053799390792847</v>
+        <v>1.079467058181763</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1701,13 +1602,13 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C63">
-        <v>0.03797507286071777</v>
+        <v>0.02774620056152344</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1718,13 +1619,13 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C64">
-        <v>0.9886724948883057</v>
+        <v>1.316851615905762</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1735,13 +1636,13 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C65">
-        <v>0.3468286991119385</v>
+        <v>0.3227412700653076</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1752,13 +1653,13 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.9364378452301025</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1766,12 +1667,18 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C67">
+        <v>0.03254342079162598</v>
+      </c>
+      <c r="D67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67">
         <v>0</v>
       </c>
     </row>
@@ -1780,13 +1687,13 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>0.8365230560302734</v>
+        <v>0.9848473072052002</v>
       </c>
       <c r="D68" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1797,13 +1704,13 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C69">
-        <v>0.1096410751342773</v>
+        <v>0.04154229164123535</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1814,13 +1721,13 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C70">
-        <v>0.9412193298339844</v>
+        <v>1.139492511749268</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1831,13 +1738,13 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C71">
-        <v>2.204357862472534</v>
+        <v>0.04302144050598145</v>
       </c>
       <c r="D71" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1848,13 +1755,13 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>0.7325894832611084</v>
+        <v>1.072115421295166</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1865,13 +1772,13 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C73">
-        <v>0.03122973442077637</v>
+        <v>0.02716875076293945</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1882,13 +1789,13 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C74">
-        <v>0.828716516494751</v>
+        <v>0.9943890571594238</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1899,13 +1806,13 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C75">
-        <v>0.0374000072479248</v>
+        <v>0.02753210067749023</v>
       </c>
       <c r="D75" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1916,13 +1823,13 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>0.8209514617919922</v>
+        <v>1.284744501113892</v>
       </c>
       <c r="D76" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1933,13 +1840,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C77">
-        <v>0.02799558639526367</v>
+        <v>0.03551030158996582</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1950,13 +1857,13 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>0.7887887954711914</v>
+        <v>1.282607078552246</v>
       </c>
       <c r="D78" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1967,13 +1874,13 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C79">
-        <v>0.03755950927734375</v>
+        <v>0.04312610626220703</v>
       </c>
       <c r="D79" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1984,13 +1891,13 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>0.7805836200714111</v>
+        <v>1.089081764221191</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2001,13 +1908,13 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C81">
-        <v>0.3002910614013672</v>
+        <v>0.03570842742919922</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2018,13 +1925,13 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C82">
-        <v>0.7974801063537598</v>
+        <v>0.9889740943908691</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2035,13 +1942,13 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C83">
-        <v>0.03073668479919434</v>
+        <v>0.02610373497009277</v>
       </c>
       <c r="D83" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2052,13 +1959,13 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C84">
-        <v>0.7598385810852051</v>
+        <v>1.244392871856689</v>
       </c>
       <c r="D84" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2069,13 +1976,13 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C85">
-        <v>0.4210593700408936</v>
+        <v>0.3195159435272217</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2086,13 +1993,13 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C86">
-        <v>0.7833657264709473</v>
+        <v>1.111794233322144</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2103,13 +2010,13 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C87">
-        <v>0.2239289283752441</v>
+        <v>0.3985872268676758</v>
       </c>
       <c r="D87" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2120,13 +2027,13 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C88">
-        <v>1.190059900283813</v>
+        <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2134,692 +2041,12 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C89">
-        <v>0.03167724609375</v>
-      </c>
-      <c r="D89" t="s">
-        <v>87</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" t="s">
-        <v>49</v>
-      </c>
-      <c r="C90">
-        <v>0.7679164409637451</v>
-      </c>
-      <c r="D90" t="s">
-        <v>87</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" t="s">
-        <v>70</v>
-      </c>
-      <c r="C91">
-        <v>0.03284978866577148</v>
-      </c>
-      <c r="D91" t="s">
-        <v>87</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" t="s">
-        <v>49</v>
-      </c>
-      <c r="C92">
-        <v>0.9346077442169189</v>
-      </c>
-      <c r="D92" t="s">
-        <v>87</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93">
-        <v>0.03136897087097168</v>
-      </c>
-      <c r="D93" t="s">
-        <v>87</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94">
-        <v>0.8451845645904541</v>
-      </c>
-      <c r="D94" t="s">
-        <v>87</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95">
-        <v>0.4022853374481201</v>
-      </c>
-      <c r="D95" t="s">
-        <v>87</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C96">
-        <v>0.7729587554931641</v>
-      </c>
-      <c r="D96" t="s">
-        <v>87</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97">
-        <v>0.2283494472503662</v>
-      </c>
-      <c r="D97" t="s">
-        <v>87</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" t="s">
-        <v>49</v>
-      </c>
-      <c r="C98">
-        <v>0.8936765193939209</v>
-      </c>
-      <c r="D98" t="s">
-        <v>87</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99">
-        <v>0.3335447311401367</v>
-      </c>
-      <c r="D99" t="s">
-        <v>87</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" t="s">
-        <v>49</v>
-      </c>
-      <c r="C100">
-        <v>0.8608195781707764</v>
-      </c>
-      <c r="D100" t="s">
-        <v>87</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101">
-        <v>0.03454971313476562</v>
-      </c>
-      <c r="D101" t="s">
-        <v>87</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" t="s">
-        <v>49</v>
-      </c>
-      <c r="C102">
-        <v>0.835092306137085</v>
-      </c>
-      <c r="D102" t="s">
-        <v>87</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103">
-        <v>0.02481961250305176</v>
-      </c>
-      <c r="D103" t="s">
-        <v>87</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" t="s">
-        <v>49</v>
-      </c>
-      <c r="C104">
-        <v>0.7133653163909912</v>
-      </c>
-      <c r="D104" t="s">
-        <v>87</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105" t="s">
-        <v>77</v>
-      </c>
-      <c r="C105">
-        <v>0.04291605949401855</v>
-      </c>
-      <c r="D105" t="s">
-        <v>87</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" t="s">
-        <v>49</v>
-      </c>
-      <c r="C106">
-        <v>0.8801333904266357</v>
-      </c>
-      <c r="D106" t="s">
-        <v>87</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>6</v>
-      </c>
-      <c r="B107" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107">
-        <v>0.02562975883483887</v>
-      </c>
-      <c r="D107" t="s">
-        <v>87</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C108">
-        <v>0.8427321910858154</v>
-      </c>
-      <c r="D108" t="s">
-        <v>87</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109">
-        <v>0.3954377174377441</v>
-      </c>
-      <c r="D109" t="s">
-        <v>87</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>5</v>
-      </c>
-      <c r="B110" t="s">
-        <v>49</v>
-      </c>
-      <c r="C110">
-        <v>0.8033342361450195</v>
-      </c>
-      <c r="D110" t="s">
-        <v>87</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" t="s">
-        <v>79</v>
-      </c>
-      <c r="C111">
-        <v>0.03982281684875488</v>
-      </c>
-      <c r="D111" t="s">
-        <v>87</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" t="s">
-        <v>49</v>
-      </c>
-      <c r="C112">
-        <v>0.7146329879760742</v>
-      </c>
-      <c r="D112" t="s">
-        <v>87</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" t="s">
-        <v>80</v>
-      </c>
-      <c r="C113">
-        <v>0.03956723213195801</v>
-      </c>
-      <c r="D113" t="s">
-        <v>87</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" t="s">
-        <v>49</v>
-      </c>
-      <c r="C114">
-        <v>0.9280180931091309</v>
-      </c>
-      <c r="D114" t="s">
-        <v>87</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" t="s">
-        <v>67</v>
-      </c>
-      <c r="C115">
-        <v>0.03575015068054199</v>
-      </c>
-      <c r="D115" t="s">
-        <v>87</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" t="s">
-        <v>49</v>
-      </c>
-      <c r="C116">
-        <v>1.183344841003418</v>
-      </c>
-      <c r="D116" t="s">
-        <v>87</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>6</v>
-      </c>
-      <c r="B117" t="s">
-        <v>81</v>
-      </c>
-      <c r="C117">
-        <v>0.03933405876159668</v>
-      </c>
-      <c r="D117" t="s">
-        <v>87</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>5</v>
-      </c>
-      <c r="B118" t="s">
-        <v>49</v>
-      </c>
-      <c r="C118">
-        <v>1.062882900238037</v>
-      </c>
-      <c r="D118" t="s">
-        <v>87</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>6</v>
-      </c>
-      <c r="B119" t="s">
-        <v>82</v>
-      </c>
-      <c r="C119">
-        <v>0.2347660064697266</v>
-      </c>
-      <c r="D119" t="s">
-        <v>87</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B120" t="s">
-        <v>49</v>
-      </c>
-      <c r="C120">
-        <v>0.9345967769622803</v>
-      </c>
-      <c r="D120" t="s">
-        <v>87</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" t="s">
-        <v>83</v>
-      </c>
-      <c r="C121">
-        <v>0.276533842086792</v>
-      </c>
-      <c r="D121" t="s">
-        <v>87</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B122" t="s">
-        <v>49</v>
-      </c>
-      <c r="C122">
-        <v>0.8495097160339355</v>
-      </c>
-      <c r="D122" t="s">
-        <v>87</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>6</v>
-      </c>
-      <c r="B123" t="s">
-        <v>77</v>
-      </c>
-      <c r="C123">
-        <v>0.03109645843505859</v>
-      </c>
-      <c r="D123" t="s">
-        <v>87</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" t="s">
-        <v>49</v>
-      </c>
-      <c r="C124">
-        <v>0.8740983009338379</v>
-      </c>
-      <c r="D124" t="s">
-        <v>87</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" t="s">
-        <v>84</v>
-      </c>
-      <c r="C125">
-        <v>0.02818894386291504</v>
-      </c>
-      <c r="D125" t="s">
-        <v>87</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" t="s">
-        <v>49</v>
-      </c>
-      <c r="C126">
-        <v>0.9330542087554932</v>
-      </c>
-      <c r="D126" t="s">
-        <v>87</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" t="s">
-        <v>69</v>
-      </c>
-      <c r="C127">
-        <v>0.4326634407043457</v>
-      </c>
-      <c r="D127" t="s">
-        <v>87</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" t="s">
-        <v>49</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128" t="s">
-        <v>87</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129">
         <v>0</v>
       </c>
     </row>

--- a/6_TuningWith2Prompting/src/result.xlsx
+++ b/6_TuningWith2Prompting/src/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
   <si>
     <t>Role</t>
   </si>
@@ -22,56 +22,85 @@
     <t>Content</t>
   </si>
   <si>
-    <t>Response_Time</t>
-  </si>
-  <si>
-    <t>RoleA_Prompt</t>
-  </si>
-  <si>
-    <t>RoleB_Prompt</t>
+    <t>Response Time</t>
+  </si>
+  <si>
+    <t>RoleA Prompt</t>
+  </si>
+  <si>
+    <t>RoleB Prompt</t>
+  </si>
+  <si>
+    <t>useApiOrPrompt</t>
+  </si>
+  <si>
+    <t>roleA</t>
   </si>
   <si>
     <t>roleB</t>
   </si>
   <si>
-    <t>roleA</t>
-  </si>
-  <si>
     <t>Separator</t>
   </si>
   <si>
+    <t>What is your name?</t>
+  </si>
+  <si>
+    <t>My name is Minh, and I'm here to assist you! How can I help you today?</t>
+  </si>
+  <si>
+    <t>Hello, Minh! How can I assist you today?</t>
+  </si>
+  <si>
+    <t>Hello! I'm here to assist you, so feel free to ask me anything or let me know what you need help with today!</t>
+  </si>
+  <si>
+    <t>Thank you, Minh! If you have any questions or need assistance with something specific, just let me know. I'm here to help!</t>
+  </si>
+  <si>
+    <t>-------------------</t>
+  </si>
+  <si>
+    <t>My name is Cuong, and I'm here to assist you! How can I help you today?</t>
+  </si>
+  <si>
+    <t>Hi Cuong! I'm here to help you with any questions or tasks you have. What can I assist you with today?</t>
+  </si>
+  <si>
+    <t>Hi! It seems like you might have mixed up our roles a bit. I'm here to assist you! If you have any questions or tasks you need help with, feel free to ask. What can I do for you today?</t>
+  </si>
+  <si>
+    <t>Thank you for the clarification, Cuong! I appreciate your willingness to assist. If you have any questions or topics you'd like to discuss, feel free to let me know. How can I help you today?</t>
+  </si>
+  <si>
     <t>Chào cậu! Hôm nay chúng ta sẽ học về chủ đề đồ ăn nhé! Các món ăn yêu thích của cậu là gì nào?</t>
   </si>
   <si>
     <t>Chào bạn! Mặc dù mình không có sở thích cá nhân, nhưng mình có thể chia sẻ về nhiều món ăn phổ biến và được yêu thích. Một số món ăn nổi tiếng có thể kể đến như phở, bánh mì, sushi, pizza, và pasta. Bạn có món ăn nào yêu thích không? Hãy cùng thảo luận về nó nhé!</t>
   </si>
   <si>
-    <t>Wow, cậu biết nhiều món ăn ngon quá! Hôm nay, tớ sẽ chọn món phở để học từ vựng nhé! Phở là một món ăn rất nổi tiếng ở Việt Nam. Trong tiếng Anh, phở được gọi là "noodle soup". Cậu có thể nói "noodle soup" không?</t>
-  </si>
-  <si>
-    <t>Chắc chắn rồi! "Noodle soup" là cách gọi tiếng Anh cho phở. Đây là một món ăn rất đặc trưng của Việt Nam, thường được làm từ nước dùng thơm ngon, bánh phở và các loại thịt như bò hoặc gà, kèm theo rau thơm và gia vị. Bạn muốn tìm hiểu thêm về các thành phần của phở hay cách chế biến không?</t>
-  </si>
-  <si>
-    <t>Tuyệt vời! Cậu đã nói rất đúng về phở! Giờ tớ sẽ giới thiệu từ vựng tiếp theo nhé! Từ tiếp theo là "beef". Trong tiếng Việt, "beef" có nghĩa là thịt bò. Cậu có thể nói "beef" không?</t>
-  </si>
-  <si>
-    <t>-------------------</t>
-  </si>
-  <si>
-    <t>Wow, cậu biết nhiều món ăn ngon quá! Hôm nay, tớ muốn nói về món "fried chicken" (gà rán) nhé! Cậu có biết gà rán không?</t>
-  </si>
-  <si>
-    <t>Có chứ! Gà rán là một món ăn rất phổ biến và được yêu thích ở nhiều nơi trên thế giới. Món ăn này thường được chế biến bằng cách ướp gà với gia vị, sau đó lăn qua bột và chiên ngập dầu cho đến khi vàng giòn. Gà rán có thể được ăn kèm với nhiều loại sốt khác nhau, như sốt BBQ, sốt mật ong, hoặc sốt cay.
-Ngoài ra, gà rán cũng thường được phục vụ với các món ăn phụ như khoai tây chiên, salad, hoặc bánh mì. Bạn có thích gà rán không? Có món gà rán nào đặc biệt mà bạn thích không?</t>
-  </si>
-  <si>
-    <t>Tớ cũng rất thích gà rán! Giờ chúng ta sẽ học từ "fried chicken" nhé! Cậu hãy lặp lại sau tớ: "fried chicken".</t>
+    <t>Wow, cậu biết nhiều món ăn ngon quá! Hôm nay, tớ muốn nói về món "bánh mì" nhé! Trong tiếng Anh, "bánh mì" là "bread". Cậu có thể nói "bread" không?</t>
+  </si>
+  <si>
+    <t>Đúng rồi, "bánh mì" trong tiếng Anh là "bread". Tuy nhiên, khi nói về món bánh mì Việt Nam, người ta thường dùng từ "Vietnamese sandwich" hoặc "bánh mì" để chỉ riêng món ăn này. Bánh mì Việt Nam rất đặc biệt với nhiều loại nhân khác nhau như thịt, chả, rau sống và nước sốt. Bạn có thích ăn bánh mì không? Nếu có, bạn thích loại nhân nào nhất?</t>
+  </si>
+  <si>
+    <t>Cậu nói rất đúng! Bánh mì Việt Nam thật sự rất ngon! Tớ cũng thích bánh mì! Bây giờ, chúng ta sẽ học một từ khác nhé! Từ tiếp theo là "thịt". Trong tiếng Anh, "thịt" là "meat". Cậu có thể nói "meat" không?</t>
   </si>
   <si>
     <t>You are Cuong. You are AI Assistant</t>
   </si>
   <si>
+    <t>You are Minh. You are AI Assistant</t>
+  </si>
+  <si>
     <t>Using API</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>api</t>
   </si>
 </sst>
 </file>
@@ -429,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,196 +480,340 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1.475976228713989</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>0.1173186302185059</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>2.072214365005493</v>
+        <v>0.8429925441741943</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.8691504001617432</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>2.555711030960083</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>1.8143310546875</v>
+        <v>1.158419847488403</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>0.1075222492218018</v>
+        <v>1.09621787071228</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>4.605872392654419</v>
+        <v>0.9802405834197998</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>1.955087661743164</v>
+        <v>1.546533584594727</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
       <c r="C12">
-        <v>2.913470983505249</v>
+        <v>1.285999298095703</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0.1378581523895264</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>2.117332458496094</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>2.278918981552124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>1.989442348480225</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1.980495691299438</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
     </row>

--- a/6_TuningWith2Prompting/src/result.xlsx
+++ b/6_TuningWith2Prompting/src/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Role</t>
   </si>
@@ -43,61 +43,37 @@
     <t>Separator</t>
   </si>
   <si>
-    <t>What is your name?</t>
-  </si>
-  <si>
-    <t>My name is Minh, and I'm here to assist you! How can I help you today?</t>
-  </si>
-  <si>
-    <t>Hello, Minh! How can I assist you today?</t>
-  </si>
-  <si>
-    <t>Hello! I'm here to assist you, so feel free to ask me anything or let me know what you need help with today!</t>
-  </si>
-  <si>
-    <t>Thank you, Minh! If you have any questions or need assistance with something specific, just let me know. I'm here to help!</t>
+    <t>sẵn sàng</t>
+  </si>
+  <si>
+    <t>Chào cậu! Hôm nay chúng ta sẽ học về chủ đề đồ ăn nhé! Các món ăn yêu thích của cậu là gì nào?</t>
+  </si>
+  <si>
+    <t>Chào bạn! Mặc dù mình không ăn uống như con người, nhưng mình có thể chia sẻ về nhiều món ăn thú vị. Một số món ăn phổ biến mà nhiều người yêu thích bao gồm:
+1. **Phở** - Món ăn truyền thống của Việt Nam với nước dùng thơm ngon, bánh phở mềm và thịt bò hoặc gà.
+2. **Sushi** - Món ăn Nhật Bản với cơm cuộn và các loại hải sản tươi sống.
+3. **Pizza** - Món ăn Ý với đế bánh mì nướng, sốt cà chua, phô mai và nhiều loại topping khác nhau.
+4. **Tacos** - Món ăn Mexico với bánh tortilla và các loại nhân như thịt, rau và sốt.
+5. **Curry** - Món ăn Ấn Độ với nước sốt gia vị và thường đi kèm với cơm hoặc bánh naan.
+Bạn có món ăn nào yêu thích không?</t>
+  </si>
+  <si>
+    <t>Wow, cậu biết nhiều món ăn ngon quá! Hôm nay, chúng ta sẽ học một số từ vựng liên quan đến đồ ăn nhé! Cậu có thích món nào trong số đó không? Chúng ta có thể bắt đầu với "phở" nhé! Trong tiếng Anh, "phở" là "noodle soup". Cậu có thể nói "noodle soup" không?</t>
+  </si>
+  <si>
+    <t>Chắc chắn rồi! "Noodle soup" là cách dịch tiếng Anh cho món "phở". Món ăn này rất đặc trưng với nước dùng thơm ngon và bánh phở mềm. Nếu bạn muốn, chúng ta có thể tiếp tục học thêm từ vựng liên quan đến "phở" hoặc các món ăn khác! Bạn có muốn tìm hiểu thêm về các thành phần trong phở không?</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! Cậu đã nói đúng rồi! Giờ chúng ta sẽ học thêm một từ vựng khác nhé! Một thành phần quan trọng trong phở là "thịt bò". Trong tiếng Anh, "thịt bò" là "beef". Cậu có thể nói "beef" không?</t>
   </si>
   <si>
     <t>-------------------</t>
   </si>
   <si>
-    <t>My name is Cuong, and I'm here to assist you! How can I help you today?</t>
-  </si>
-  <si>
-    <t>Hi Cuong! I'm here to help you with any questions or tasks you have. What can I assist you with today?</t>
-  </si>
-  <si>
-    <t>Hi! It seems like you might have mixed up our roles a bit. I'm here to assist you! If you have any questions or tasks you need help with, feel free to ask. What can I do for you today?</t>
-  </si>
-  <si>
-    <t>Thank you for the clarification, Cuong! I appreciate your willingness to assist. If you have any questions or topics you'd like to discuss, feel free to let me know. How can I help you today?</t>
-  </si>
-  <si>
-    <t>Chào cậu! Hôm nay chúng ta sẽ học về chủ đề đồ ăn nhé! Các món ăn yêu thích của cậu là gì nào?</t>
-  </si>
-  <si>
-    <t>Chào bạn! Mặc dù mình không có sở thích cá nhân, nhưng mình có thể chia sẻ về nhiều món ăn phổ biến và được yêu thích. Một số món ăn nổi tiếng có thể kể đến như phở, bánh mì, sushi, pizza, và pasta. Bạn có món ăn nào yêu thích không? Hãy cùng thảo luận về nó nhé!</t>
-  </si>
-  <si>
-    <t>Wow, cậu biết nhiều món ăn ngon quá! Hôm nay, tớ muốn nói về món "bánh mì" nhé! Trong tiếng Anh, "bánh mì" là "bread". Cậu có thể nói "bread" không?</t>
-  </si>
-  <si>
-    <t>Đúng rồi, "bánh mì" trong tiếng Anh là "bread". Tuy nhiên, khi nói về món bánh mì Việt Nam, người ta thường dùng từ "Vietnamese sandwich" hoặc "bánh mì" để chỉ riêng món ăn này. Bánh mì Việt Nam rất đặc biệt với nhiều loại nhân khác nhau như thịt, chả, rau sống và nước sốt. Bạn có thích ăn bánh mì không? Nếu có, bạn thích loại nhân nào nhất?</t>
-  </si>
-  <si>
-    <t>Cậu nói rất đúng! Bánh mì Việt Nam thật sự rất ngon! Tớ cũng thích bánh mì! Bây giờ, chúng ta sẽ học một từ khác nhé! Từ tiếp theo là "thịt". Trong tiếng Anh, "thịt" là "meat". Cậu có thể nói "meat" không?</t>
-  </si>
-  <si>
     <t>You are Cuong. You are AI Assistant</t>
   </si>
   <si>
-    <t>You are Minh. You are AI Assistant</t>
-  </si>
-  <si>
     <t>Using API</t>
-  </si>
-  <si>
-    <t>prompt</t>
   </si>
   <si>
     <t>api</t>
@@ -458,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -512,16 +488,16 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1.475976228713989</v>
+        <v>0.1227195262908936</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -532,16 +508,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.8429925441741943</v>
+        <v>3.274816513061523</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -552,16 +528,16 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0.8691504001617432</v>
+        <v>3.696239948272705</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -572,248 +548,46 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1.158419847488403</v>
+        <v>1.971581935882568</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2.313379049301147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>1.09621787071228</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>0.9802405834197998</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>1.546533584594727</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>1.285999298095703</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>0.1378581523895264</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>2.117332458496094</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>2.278918981552124</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>1.989442348480225</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>1.980495691299438</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
         <v>0</v>
       </c>
     </row>

--- a/6_TuningWith2Prompting/src/result.xlsx
+++ b/6_TuningWith2Prompting/src/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="200">
   <si>
     <t>Role</t>
   </si>
@@ -43,13 +43,43 @@
     <t>Separator</t>
   </si>
   <si>
+    <t>What is your name?</t>
+  </si>
+  <si>
+    <t>My name is Minh, and I'm here to assist you! How can I help you today?</t>
+  </si>
+  <si>
+    <t>Hello Minh! I'm here to assist you as well. How can I help you today?</t>
+  </si>
+  <si>
+    <t>Hello! I appreciate your offer to assist. I'm here to provide information and answer any questions you might have. What would you like to know or discuss today?</t>
+  </si>
+  <si>
+    <t>Thank you, Minh! I appreciate your willingness to help. If you have any questions or topics you'd like to discuss, feel free to share! Whether it's about technology, science, culture, or anything else, I'm here to assist. What’s on your mind?</t>
+  </si>
+  <si>
+    <t>-------------------</t>
+  </si>
+  <si>
+    <t>My name is Cuong. How can I assist you today?</t>
+  </si>
+  <si>
+    <t>Hi Cuong! I'm here to help you with any questions or topics you'd like to discuss. What can I assist you with today?</t>
+  </si>
+  <si>
+    <t>Hi! It seems like you might have mixed up our roles a bit. I'm here to assist you! If you have any questions or topics you'd like to discuss, feel free to let me know. How can I help you today?</t>
+  </si>
+  <si>
+    <t>Thank you for the clarification, Cuong! I appreciate your willingness to assist. If you have any questions or topics you'd like to explore, please let me know, and I'll do my best to provide the information you need!</t>
+  </si>
+  <si>
     <t>sẵn sàng</t>
   </si>
   <si>
     <t>Chào cậu! Hôm nay chúng ta sẽ học về chủ đề đồ ăn nhé! Các món ăn yêu thích của cậu là gì nào?</t>
   </si>
   <si>
-    <t>Chào bạn! Mặc dù mình không ăn uống như con người, nhưng mình có thể chia sẻ về nhiều món ăn thú vị. Một số món ăn phổ biến mà nhiều người yêu thích bao gồm:
+    <t>Chào bạn! Mặc dù mình không ăn uống như con người, nhưng mình có thể chia sẻ về nhiều món ăn thú vị và phổ biến. Một số món ăn yêu thích của nhiều người có thể kể đến như:
 1. **Phở** - Món ăn truyền thống của Việt Nam với nước dùng thơm ngon, bánh phở mềm và thịt bò hoặc gà.
 2. **Sushi** - Món ăn Nhật Bản với cơm cuộn và các loại hải sản tươi sống.
 3. **Pizza** - Món ăn Ý với đế bánh mì nướng, sốt cà chua, phô mai và nhiều loại topping khác nhau.
@@ -58,22 +88,608 @@
 Bạn có món ăn nào yêu thích không?</t>
   </si>
   <si>
-    <t>Wow, cậu biết nhiều món ăn ngon quá! Hôm nay, chúng ta sẽ học một số từ vựng liên quan đến đồ ăn nhé! Cậu có thích món nào trong số đó không? Chúng ta có thể bắt đầu với "phở" nhé! Trong tiếng Anh, "phở" là "noodle soup". Cậu có thể nói "noodle soup" không?</t>
-  </si>
-  <si>
-    <t>Chắc chắn rồi! "Noodle soup" là cách dịch tiếng Anh cho món "phở". Món ăn này rất đặc trưng với nước dùng thơm ngon và bánh phở mềm. Nếu bạn muốn, chúng ta có thể tiếp tục học thêm từ vựng liên quan đến "phở" hoặc các món ăn khác! Bạn có muốn tìm hiểu thêm về các thành phần trong phở không?</t>
-  </si>
-  <si>
-    <t>Tuyệt vời! Cậu đã nói đúng rồi! Giờ chúng ta sẽ học thêm một từ vựng khác nhé! Một thành phần quan trọng trong phở là "thịt bò". Trong tiếng Anh, "thịt bò" là "beef". Cậu có thể nói "beef" không?</t>
-  </si>
-  <si>
-    <t>-------------------</t>
+    <t>Wow, cậu biết nhiều món ăn ngon quá! Hôm nay, chúng ta sẽ học về một số từ vựng liên quan đến đồ ăn nhé! Cậu có thích món "phở" không? Trong tiếng Anh, "phở" được gọi là "pho". Cậu có thể nói "pho" không nào?</t>
+  </si>
+  <si>
+    <t>Chắc chắn rồi! "Pho" được phát âm là /fəʊ/ trong tiếng Anh. Đây là một món ăn rất đặc trưng của Việt Nam và được nhiều người yêu thích trên toàn thế giới. Nếu bạn muốn học thêm từ vựng liên quan đến phở hoặc các món ăn khác, mình rất sẵn lòng giúp đỡ! Bạn có từ nào cụ thể muốn tìm hiểu không?</t>
+  </si>
+  <si>
+    <t>Cậu phát âm "pho" rất tốt! Giờ chúng ta sẽ học một từ vựng khác nhé! Từ tiếp theo là "thịt bò". Trong tiếng Anh, "thịt bò" được gọi là "beef". Cậu có thể thử nói "beef" không nào?</t>
+  </si>
+  <si>
+    <t>Tớ thích phở bò. Tớ thích bánh mì. Tớ thích kem nữa.</t>
+  </si>
+  <si>
+    <t>Wow! Cậu thích phở bò, bánh mì và kem! Thật tuyệt vời! Bây giờ, chúng ta sẽ học một số từ vựng mới từ những món ăn này nhé! Đầu tiên, chúng ta sẽ học từ "bò". Trong tiếng Anh, "bò" là "beef". Cậu hãy lặp lại theo tớ nhé: "beef".</t>
+  </si>
+  <si>
+    <t>Tớ lặp lại: beef. Tớ nhớ rồi.</t>
+  </si>
+  <si>
+    <t>Great job, cậu! Tớ rất vui vì cậu nhớ từ "beef"! Bây giờ, chúng ta sẽ học từ tiếp theo: "bánh mì". Trong tiếng Anh, "bánh mì" là "bread". Cậu hãy lặp lại theo tớ nhé: "bread".</t>
+  </si>
+  <si>
+    <t>Tớ lặp lại: bread. Tớ nhớ rồi.</t>
+  </si>
+  <si>
+    <t>Awesome! Cậu làm rất tốt! Bây giờ, chúng ta sẽ học từ cuối cùng: "kem". Trong tiếng Anh, "kem" là "ice cream". Cậu hãy lặp lại theo tớ nhé: "ice cream".</t>
+  </si>
+  <si>
+    <t>Tớ lặp lại: ice cream. Tớ nhớ rồi.</t>
+  </si>
+  <si>
+    <t>Fantastic! Cậu đã học được ba từ vựng mới: "beef", "bread", và "ice cream"! Bây giờ, cậu hãy lặp lại tất cả các từ này cho tớ nhé!</t>
+  </si>
+  <si>
+    <t>Tớ lặp lại: beef, bread, ice cream. Tớ nhớ hết.</t>
+  </si>
+  <si>
+    <t>Wow! Cậu thật tuyệt vời! Tớ rất ấn tượng với khả năng nhớ từ vựng của cậu! Giờ đây, cậu đã học được ba từ vựng mới rồi. Tớ rất tự hào về cậu! Cậu có muốn nói thêm gì về món ăn yêu thích của mình không?</t>
+  </si>
+  <si>
+    <t>Tớ thích ăn phở. Tớ thích ăn bánh mì. Tớ thích ăn kem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rất tốt! Cậu đã sử dụng từ "ăn" rất chính xác! Tớ muốn cậu thử nói câu này bằng tiếng Anh nhé: "I like to eat pho, bread, and ice cream." Cậu hãy lặp lại theo tớ nhé: "I like to eat pho, bread, and ice cream." </t>
+  </si>
+  <si>
+    <t>Tớ lặp lại: I like to eat pho, bread, and ice cream. Tớ nhớ rồi.</t>
+  </si>
+  <si>
+    <t>Excellent! Cậu đã nói rất tốt! Tớ rất vui vì cậu nhớ câu này! Cậu đã học được rất nhiều hôm nay. Tớ muốn khen cậu vì sự nỗ lực của cậu! Giờ thì tớ sẽ nói lời tạm biệt nhé. Hẹn gặp lại cậu trong bài học sau! Bye bye!</t>
+  </si>
+  <si>
+    <t>Tớ cảm ơn cậu! Tớ rất vui! Hẹn gặp lại cậu! Tạm biệt!</t>
+  </si>
+  <si>
+    <t>Tớ cũng cảm ơn cậu! Tớ rất vui khi được học cùng cậu! Hẹn gặp lại cậu nhé! Tạm biệt!</t>
+  </si>
+  <si>
+    <t>Tớ cũng cảm ơn cậu! Tớ rất vui! Hẹn gặp lại cậu! Tạm biệt!</t>
+  </si>
+  <si>
+    <t>Xin lỗi, hiện tại hệ thống đang trong quá trình bảo trì và nâng cấp, anh chị vui lòng liên hệ lại sau</t>
+  </si>
+  <si>
+    <t>Tớ không hiểu. Tớ chỉ học thôi. Cậu giúp tớ nhé!</t>
+  </si>
+  <si>
+    <t>Tớ thích pizza! Yum!</t>
+  </si>
+  <si>
+    <t>Pizza rất ngon! Nhưng hôm nay, chúng ta sẽ học về một số món ăn khác nhé! Cậu có thích ăn thịt gà chiên không? Trong tiếng Anh, thịt gà chiên là "fried chicken". Cậu hãy thử nói "fried chicken" nào!</t>
+  </si>
+  <si>
+    <t>Fried chicken! Hiểu rồi!</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! Cậu nói rất đúng! "Fried chicken" là món ăn ngon. Bây giờ, chúng ta sẽ học một từ khác nhé! Cậu có biết từ "bacon" không? Bacon là thịt xông khói. Cậu hãy thử nói "bacon" nào!</t>
+  </si>
+  <si>
+    <t>Bacon! Hihi, gì vậy?!</t>
+  </si>
+  <si>
+    <t>Cậu nói đúng rồi! "Bacon" là thịt xông khói, rất ngon! Giờ chúng ta sẽ học một từ nữa nhé! Cậu có biết từ "vegetable" không? Vegetable có nghĩa là rau củ. Cậu hãy thử nói "vegetable" nào!</t>
+  </si>
+  <si>
+    <t>Vegetable! Tớ là hero!</t>
+  </si>
+  <si>
+    <t>Wow! Cậu là một hero thật sự! Cậu đã nói đúng rồi! "Vegetable" là rau củ. Bây giờ, hãy cùng nhau ôn lại nhé! Cậu hãy lặp lại các từ: "fried chicken", "bacon", và "vegetable" nào!</t>
+  </si>
+  <si>
+    <t>Fried chicken, bacon, vegetable! Hiểu rồi!</t>
+  </si>
+  <si>
+    <t>Xuất sắc! Cậu đã nhớ rất tốt! Cậu thật thông minh! Giờ đây, tớ muốn khen cậu một chút: Great job! Cậu đã học được ba từ mới hôm nay! Tớ rất tự hào về cậu! Giờ tớ sẽ nói lời tạm biệt nhé! Hẹn gặp lại cậu lần sau! Bye bye!</t>
+  </si>
+  <si>
+    <t>Bye bye cậu! See you soon nha!</t>
+  </si>
+  <si>
+    <t>See you soon! Tạm biệt cậu! Chúc cậu một ngày vui vẻ!</t>
+  </si>
+  <si>
+    <t>Cảm ơn cậu! Tớ cũng vậy! Bye nha, buồn ngủ!</t>
+  </si>
+  <si>
+    <t>Hihi, gì vậy?! Tớ đang học mà!</t>
+  </si>
+  <si>
+    <t>Tớ là hero! Học tiếp nha!</t>
+  </si>
+  <si>
+    <t>Hihi, tớ không hiểu! Học từ mới đi!</t>
+  </si>
+  <si>
+    <t>Bye nha, buồn ngủ! Nhưng tớ quay lại! Học tiếp nào!</t>
+  </si>
+  <si>
+    <t>Hihi, gì vậy?! Tớ muốn học mà!</t>
+  </si>
+  <si>
+    <t>Tớ là hero! Học từ mới đi!</t>
+  </si>
+  <si>
+    <t>Hihi, tớ không hiểu! Học tiếp nha!</t>
+  </si>
+  <si>
+    <t>tớ thích cơm tấm bánh mì</t>
+  </si>
+  <si>
+    <t>Wow, cơm tấm và bánh mì thật tuyệt! Hôm nay, tớ sẽ dạy cậu một số từ vựng liên quan đến đồ ăn nhé! Đầu tiên, chúng ta sẽ học từ "rice". Cơm trong tiếng Anh là "rice". Cậu hãy thử nói "rice" nào!</t>
+  </si>
+  <si>
+    <t>tớ nói "rice" nhé!</t>
+  </si>
+  <si>
+    <t>Great job, cậu! Tớ rất vui khi cậu nói đúng! Bây giờ, tớ sẽ cho cậu một câu ví dụ nhé: "I eat rice every day." Cậu hãy thử nói câu này nào!</t>
+  </si>
+  <si>
+    <t>tớ ăn rice mỗi ngày</t>
+  </si>
+  <si>
+    <t>Cậu nói rất tốt! Nhưng chúng ta cần sửa một chút nhé. Câu đúng là "I eat rice every day." Cậu hãy thử nói lại câu này nào: "I eat rice every day."!</t>
+  </si>
+  <si>
+    <t>tớ eat rice every day</t>
+  </si>
+  <si>
+    <t>Cậu đã gần đúng rồi! Nhưng chúng ta cần thêm một từ nữa. Câu đúng là "I eat rice every day." Cậu hãy thêm từ "I" vào đầu câu nhé! Hãy thử nói lại nào: "I eat rice every day."!</t>
+  </si>
+  <si>
+    <t>tớ I eat rice every day</t>
+  </si>
+  <si>
+    <t>Yay! Cậu đã nói đúng rồi! Tớ rất tự hào về cậu! Giờ chúng ta sẽ học từ tiếp theo nhé. Từ tiếp theo là "bread". Bánh mì trong tiếng Anh là "bread". Cậu hãy thử nói "bread" nào!</t>
+  </si>
+  <si>
+    <t>tớ nói "bread" nhé!</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! Cậu nói rất tốt! Bây giờ, tớ sẽ cho cậu một câu ví dụ nhé: "I like bread for breakfast." Cậu hãy thử nói câu này nào!</t>
+  </si>
+  <si>
+    <t>tớ like bread cho breakfast</t>
+  </si>
+  <si>
+    <t>Cậu đã gần đúng rồi! Nhưng chúng ta cần thêm một từ nữa. Câu đúng là "I like bread for breakfast." Cậu hãy thêm từ "I" vào đầu câu nhé! Hãy thử nói lại nào: "I like bread for breakfast."!</t>
+  </si>
+  <si>
+    <t>tớ I like bread for breakfast</t>
+  </si>
+  <si>
+    <t>Yay! Cậu đã nói đúng rồi! Tớ rất vui vì cậu đã học được từ này! Giờ chúng ta sẽ học từ cuối cùng nhé. Từ này là "vegetable". Rau trong tiếng Anh là "vegetable". Cậu hãy thử nói "vegetable" nào!</t>
+  </si>
+  <si>
+    <t>tớ nói "vegetable" nhé!</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! Cậu nói rất tốt! Bây giờ, tớ sẽ cho cậu một câu ví dụ nhé: "I eat vegetable every day." Cậu hãy thử nói câu này nào!</t>
+  </si>
+  <si>
+    <t>tớ eat vegetable mỗi ngày</t>
+  </si>
+  <si>
+    <t>Cậu đã gần đúng rồi! Nhưng chúng ta cần thêm một từ nữa. Câu đúng là "I eat vegetable every day." Cậu hãy thêm từ "I" vào đầu câu nhé! Hãy thử nói lại nào: "I eat vegetable every day."!</t>
+  </si>
+  <si>
+    <t>tớ I eat vegetable mỗi ngày</t>
+  </si>
+  <si>
+    <t>Yay! Cậu đã nói đúng rồi! Tớ rất tự hào về cậu! Giờ chúng ta cùng ôn lại nhé. Cậu hãy lặp lại các từ vựng mà chúng ta đã học: "rice", "bread", "vegetable" nào!</t>
+  </si>
+  <si>
+    <t>tớ nói "rice" "bread" "vegetable"</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! Cậu đã nhớ rất tốt các từ vựng! Tớ rất ấn tượng với cậu! Cậu đã học rất chăm chỉ hôm nay. Giờ tớ muốn khen cậu một lần nữa: "Great job!". Tớ rất vui khi được học cùng cậu! Tạm biệt và hẹn gặp lại nhé!</t>
+  </si>
+  <si>
+    <t>tớ cảm ơn cậu! tạm biệt cậu!</t>
+  </si>
+  <si>
+    <t>Cảm ơn cậu! Tạm biệt và hẹn gặp lại nhé! Chúc cậu một ngày vui vẻ!</t>
+  </si>
+  <si>
+    <t>tớ cũng cảm ơn cậu! chúc cậu ngày vui!</t>
+  </si>
+  <si>
+    <t>tớ không hiểu. cậu nói lại nhé!</t>
+  </si>
+  <si>
+    <t>tớ thích phở . tớ thích bánh mì .</t>
+  </si>
+  <si>
+    <t>Wow, cậu thích phở và bánh mì! Thật tuyệt! Bây giờ, chúng ta sẽ học một số từ vựng liên quan đến đồ ăn nhé! Đầu tiên, hãy cùng học từ "noodle". Trong tiếng Việt, "noodle" có nghĩa là "mì". Cậu có thể lặp lại từ "noodle" không?</t>
+  </si>
+  <si>
+    <t>tớ lặp lại . noodle .</t>
+  </si>
+  <si>
+    <t>Great job, cậu! Từ "noodle" rất hay! Bây giờ, hãy cùng dùng từ này trong câu nhé. Ví dụ: "Tôi thích ăn mì". Cậu có thể lặp lại câu này bằng tiếng Anh không? Câu là: "I like to eat noodles".</t>
+  </si>
+  <si>
+    <t>tớ không biết . tớ chỉ nói . tớ thích mì .</t>
+  </si>
+  <si>
+    <t>Không sao đâu, cậu! Câu "tớ thích mì" rất tốt! Nhưng trong tiếng Anh, chúng ta sẽ nói là "I like noodles". Hãy lặp lại câu này nhé: "I like noodles".</t>
+  </si>
+  <si>
+    <t>tớ lặp lại . I like noodles .</t>
+  </si>
+  <si>
+    <t>Excellent, cậu! Cậu đã nói rất tốt! Bây giờ, chúng ta sẽ học từ tiếp theo nhé. Từ này là "bread". Trong tiếng Việt, "bread" có nghĩa là "bánh mì". Cậu có thể lặp lại từ "bread" không?</t>
+  </si>
+  <si>
+    <t>tớ lặp lại . bread .</t>
+  </si>
+  <si>
+    <t>Awesome, cậu! Từ "bread" rất hay! Bây giờ, hãy dùng từ này trong câu nhé. Ví dụ: "Tôi ăn bánh mì mỗi sáng". Cậu có thể lặp lại câu này bằng tiếng Anh không? Câu là: "I eat bread every morning".</t>
+  </si>
+  <si>
+    <t>tớ không biết . tớ ăn bánh mì .</t>
+  </si>
+  <si>
+    <t>Không sao đâu, cậu! Câu "tớ ăn bánh mì" rất tốt! Nhưng trong tiếng Anh, chúng ta sẽ nói là "I eat bread". Hãy lặp lại câu này nhé: "I eat bread".</t>
+  </si>
+  <si>
+    <t>tớ lặp lại . I eat bread .</t>
+  </si>
+  <si>
+    <t>Fantastic, cậu! Cậu đã nói rất tốt! Bây giờ, chúng ta sẽ học từ cuối cùng nhé. Từ này là "vegetable". Trong tiếng Việt, "vegetable" có nghĩa là "rau". Cậu có thể lặp lại từ "vegetable" không?</t>
+  </si>
+  <si>
+    <t>tớ lặp lại . vegetable .</t>
+  </si>
+  <si>
+    <t>Great job, cậu! Từ "vegetable" rất hay! Bây giờ, hãy dùng từ này trong câu nhé. Ví dụ: "Tôi thích ăn rau". Cậu có thể lặp lại câu này bằng tiếng Anh không? Câu là: "I like to eat vegetables".</t>
+  </si>
+  <si>
+    <t>tớ không biết . tớ thích rau .</t>
+  </si>
+  <si>
+    <t>Không sao đâu, cậu! Câu "tớ thích rau" rất tốt! Nhưng trong tiếng Anh, chúng ta sẽ nói là "I like vegetables". Hãy lặp lại câu này nhé: "I like vegetables".</t>
+  </si>
+  <si>
+    <t>tớ lặp lại . I like vegetables .</t>
+  </si>
+  <si>
+    <t>Wonderful, cậu! Cậu đã nói rất tốt! Bây giờ, chúng ta hãy ôn lại tất cả các từ vựng mà chúng ta đã học hôm nay nhé. Cậu hãy lặp lại theo tớ: "noodle", "bread", "vegetable".</t>
+  </si>
+  <si>
+    <t>tớ lặp lại . noodle . bread . vegetable .</t>
+  </si>
+  <si>
+    <t>Excellent, cậu! Cậu đã nhớ rất tốt tất cả các từ vựng! Cậu thật thông minh! Hôm nay, cậu đã học được rất nhiều điều mới. Tớ rất tự hào về cậu! Giờ thì tạm biệt nhé, hẹn gặp lại cậu lần sau! Bye bye!</t>
+  </si>
+  <si>
+    <t>tạm biệt . hẹn gặp lại . tớ vui .</t>
+  </si>
+  <si>
+    <t>Tớ cũng vui lắm! Hẹn gặp lại cậu nhé! Tạm biệt!</t>
+  </si>
+  <si>
+    <t>tạm biệt . hẹn gặp lại .</t>
+  </si>
+  <si>
+    <t>không sao . tớ chờ .</t>
+  </si>
+  <si>
+    <t>tớ thích pizza. tớ thích kem.</t>
+  </si>
+  <si>
+    <t>Wow, pizza và kem thật tuyệt vời! Hôm nay, tớ sẽ dạy cậu một số từ vựng liên quan đến đồ ăn. Đầu tiên, chúng ta sẽ học từ "trái cây" nhé! Trong tiếng Anh, "trái cây" là "fruit". Cậu có thể lặp lại không? "fruit".</t>
+  </si>
+  <si>
+    <t>tớ không muốn học. tớ thích đồ chơi.</t>
+  </si>
+  <si>
+    <t>Ôi, đồ chơi cũng rất thú vị! Nhưng học từ vựng về đồ ăn cũng vui lắm đó! Chúng ta có thể kết hợp cả hai! Cậu có biết từ "rau" trong tiếng Anh là gì không? Đó là "vegetable". Cậu thử lặp lại nhé! "vegetable".</t>
+  </si>
+  <si>
+    <t>tớ không muốn học. tớ thích siêu nhân.</t>
+  </si>
+  <si>
+    <t>Siêu nhân thật tuyệt vời! Nhưng học tiếng Anh cũng giống như trở thành siêu nhân trong việc giao tiếp! Chúng ta có thể học nhanh thôi! Cậu có biết từ "cá" trong tiếng Anh là gì không? Đó là "fish". Cậu thử lặp lại nhé! "fish".</t>
+  </si>
+  <si>
+    <t>tớ không muốn học. tớ thích xe hơi.</t>
+  </si>
+  <si>
+    <t>Xe hơi cũng rất thú vị! Nhưng học từ vựng sẽ giúp cậu nói về xe hơi bằng tiếng Anh nữa đó! Chúng ta chỉ cần học một chút thôi! Cậu có muốn thử không? Hãy lặp lại từ "fruit" mà tớ đã dạy nhé! "fruit".</t>
+  </si>
+  <si>
+    <t>tớ không muốn học. tớ thích robot.</t>
+  </si>
+  <si>
+    <t>Robot cũng rất thú vị! Nhưng học tiếng Anh sẽ giúp cậu nói về robot một cách dễ dàng hơn! Chúng ta chỉ cần học một từ thôi nhé! Cậu có muốn thử không? Hãy lặp lại từ "vegetable" mà tớ đã dạy nhé! "vegetable".</t>
+  </si>
+  <si>
+    <t>tớ không muốn học. tớ thích bóng đá.</t>
+  </si>
+  <si>
+    <t>Bóng đá thật tuyệt vời! Nhưng học tiếng Anh cũng quan trọng lắm đó! Cậu có thể nói về bóng đá bằng tiếng Anh nếu học từ vựng! Chúng ta chỉ cần học một từ cuối cùng thôi nhé! Hãy lặp lại từ "fish" mà tớ đã dạy nhé! "fish".</t>
+  </si>
+  <si>
+    <t>tớ không muốn học. tớ thích truyện tranh.</t>
+  </si>
+  <si>
+    <t>Tớ hiểu rồi! Truyện tranh cũng rất thú vị! Cảm ơn cậu đã trò chuyện với tớ hôm nay. Hãy nhớ rằng học tiếng Anh cũng có thể vui như đọc truyện tranh! Tạm biệt cậu, hẹn gặp lại lần sau nhé!</t>
+  </si>
+  <si>
+    <t>tạm biệt cậu. hẹn gặp lại.</t>
+  </si>
+  <si>
+    <t>tớ không hiểu. tớ thích đồ chơi.</t>
+  </si>
+  <si>
+    <t>tớ không hiểu. tớ thích siêu nhân.</t>
+  </si>
+  <si>
+    <t>tớ không hiểu. tớ thích bóng đá.</t>
+  </si>
+  <si>
+    <t>tớ không hiểu. tớ thích robot.</t>
+  </si>
+  <si>
+    <t>tớ không hiểu. tớ thích truyện tranh.</t>
+  </si>
+  <si>
+    <t>tớ không hiểu. tớ thích xe hơi.</t>
+  </si>
+  <si>
+    <t>tớ thích bánh mì. tớ thích kem.</t>
+  </si>
+  <si>
+    <t>Wow, bánh mì và kem thật tuyệt vời! Hôm nay, tớ sẽ dạy cậu một số từ vựng liên quan đến đồ ăn. Đầu tiên, chúng ta sẽ học từ "bread". Trong tiếng Việt, "bread" có nghĩa là "bánh mì". Cậu có thể lặp lại từ "bread" không?</t>
+  </si>
+  <si>
+    <t>tớ không muốn. tớ không lặp.</t>
+  </si>
+  <si>
+    <t>Ôi, không sao đâu cậu! Tớ hiểu mà. Nhưng nếu cậu không lặp lại, tớ sẽ không thể giúp cậu học từ mới. Thế cậu có muốn học từ khác không? Chúng ta có thể học từ "ice cream" nhé! Trong tiếng Việt, "ice cream" có nghĩa là "kem". Cậu có muốn thử lặp lại từ "ice cream" không?</t>
+  </si>
+  <si>
+    <t>tớ không thích. tớ không lặp.</t>
+  </si>
+  <si>
+    <t>Tớ hiểu rồi, cậu không muốn lặp lại. Không sao cả! Chúng ta có thể nói về món ăn cậu thích. Cậu có thích ăn trái cây không? Tớ có thể dạy cậu từ "fruit". Trong tiếng Việt, "fruit" có nghĩa là "trái cây". Cậu có muốn biết thêm không?</t>
+  </si>
+  <si>
+    <t>tớ không thích trái cây. tớ thích bánh mì.</t>
+  </si>
+  <si>
+    <t>À, bánh mì là món cậu thích nhất đúng không? Thật tuyệt! Vậy tớ sẽ dạy cậu một từ khác liên quan đến bánh mì nhé. Từ này là "sandwich". Trong tiếng Việt, "sandwich" có nghĩa là "bánh mì kẹp". Cậu có muốn thử lặp lại từ "sandwich" không?</t>
+  </si>
+  <si>
+    <t>tớ không muốn lặp. tớ thích ăn thôi.</t>
+  </si>
+  <si>
+    <t>Tớ hiểu rồi, cậu thích ăn mà không muốn lặp lại từ. Không sao cả! Hôm nay chúng ta đã nói về bánh mì và kem. Cậu có thể cho tớ biết cậu thích ăn bánh mì với gì không? Tớ rất muốn nghe ý kiến của cậu!</t>
+  </si>
+  <si>
+    <t>tớ thích bánh mì với thịt. tớ thích bánh mì với trứng.</t>
+  </si>
+  <si>
+    <t>Wow, bánh mì với thịt và bánh mì với trứng nghe thật ngon! Tớ sẽ dạy cậu từ "meat". Trong tiếng Việt, "meat" có nghĩa là "thịt". Cậu có muốn thử lặp lại từ "meat" không?</t>
+  </si>
+  <si>
+    <t>tớ không muốn lặp. tớ chỉ ăn thôi.</t>
+  </si>
+  <si>
+    <t>Tớ hiểu mà, cậu chỉ muốn thưởng thức đồ ăn thôi! Thật tuyệt! Vậy chúng ta đã học được một số từ vựng về đồ ăn rồi. Bây giờ, cậu có thể cho tớ biết tất cả các từ vựng mà chúng ta đã học hôm nay không? Như "bread", "ice cream", "sandwich", và "meat". Cậu có nhớ không?</t>
+  </si>
+  <si>
+    <t>tớ không nhớ. tớ chỉ nhớ bánh mì.</t>
+  </si>
+  <si>
+    <t>Không sao đâu, cậu nhớ được "bánh mì" là rất tốt rồi! Tớ rất tự hào về cậu! Hôm nay, chúng ta đã học về bánh mì, kem, bánh mì kẹp và thịt. Cậu đã làm rất tốt! Tớ hy vọng cậu sẽ nhớ những từ này khi ăn nhé! Giờ thì tớ muốn nói lời tạm biệt với cậu. Hẹn gặp lại cậu lần sau nhé! Bye bye!</t>
+  </si>
+  <si>
+    <t>tạm biệt. hẹn gặp lại.</t>
+  </si>
+  <si>
+    <t>Tạm biệt cậu! Hẹn gặp lại cậu trong những buổi học sau nhé! Chúc cậu có một ngày thật vui!</t>
+  </si>
+  <si>
+    <t>cảm ơn. tớ cũng vậy.</t>
+  </si>
+  <si>
+    <t>không sao. tớ chờ.</t>
+  </si>
+  <si>
+    <t>tớ không hiểu. tớ chờ thôi.</t>
+  </si>
+  <si>
+    <t>tớ không biết. tớ chờ.</t>
+  </si>
+  <si>
+    <t>tớ thích phở . tớ thích bánh mì . tớ thích kem .</t>
+  </si>
+  <si>
+    <t>Wow, cậu thích nhiều món ngon quá! Hôm nay, tớ sẽ dạy cậu một số từ vựng liên quan đến đồ ăn nhé! Đầu tiên, chúng ta sẽ học từ "phở". Trong tiếng Anh, "phở" là "noodle soup". Cậu có thể nói "noodle soup" không?</t>
+  </si>
+  <si>
+    <t>tớ nói "noodle soup" . dễ quá . cậu dạy tiếp đi .</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! Cậu nói rất đúng! Giờ chúng ta sẽ học từ tiếp theo: "bánh mì". Trong tiếng Anh, "bánh mì" là "bread". Cậu có thể nói "bread" không?</t>
+  </si>
+  <si>
+    <t>tớ nói "bread" . dễ quá . cậu có từ khác không?</t>
+  </si>
+  <si>
+    <t>Cậu nói rất tốt! Giờ chúng ta sẽ học từ cuối cùng: "kem". Trong tiếng Anh, "kem" là "ice cream". Cậu có thể nói "ice cream" không?</t>
+  </si>
+  <si>
+    <t>tớ nói "ice cream" . ngon quá . cậu thích kem không?</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! Cậu nói rất đúng! Tớ cũng thích kem lắm! Giờ chúng ta sẽ ôn lại nhé. Cậu hãy lặp lại các từ vựng mà chúng ta đã học: "noodle soup", "bread", và "ice cream".</t>
+  </si>
+  <si>
+    <t>tớ lặp lại . "noodle soup" . "bread" . "ice cream" .</t>
+  </si>
+  <si>
+    <t>Wow, cậu làm rất tốt! Cậu đã nhớ hết các từ vựng rồi! Cậu thật thông minh! Giờ tớ muốn khen cậu một chút: Great job! Cậu có muốn học thêm gì không hay chúng ta kết thúc ở đây?</t>
+  </si>
+  <si>
+    <t>tớ muốn học thêm . cậu có từ mới không? . học vui quá!</t>
+  </si>
+  <si>
+    <t>Tớ rất vui khi cậu thích học! Chúng ta có thể học thêm một từ mới nữa nhé! Hôm nay, tớ sẽ dạy cậu từ "rau". Trong tiếng Anh, "rau" là "vegetable". Cậu có thể nói "vegetable" không?</t>
+  </si>
+  <si>
+    <t>tớ nói "vegetable" . dễ quá . cậu có rau gì không?</t>
+  </si>
+  <si>
+    <t>Cậu nói rất đúng! Tớ thích rau xanh như "cà rốt" (carrot) và "bông cải xanh" (broccoli). Giờ cậu hãy lặp lại từ "vegetable" và cho tớ biết cậu thích rau gì nhé!</t>
+  </si>
+  <si>
+    <t>tớ lặp lại "vegetable" . tớ thích cà rốt . tớ thích bông cải xanh .</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! Cậu nói rất tốt! Trong tiếng Anh, "cà rốt" là "carrot" và "bông cải xanh" là "broccoli". Cậu có thể nói "carrot" và "broccoli" không?</t>
+  </si>
+  <si>
+    <t>tớ nói "carrot" . tớ nói "broccoli" . dễ quá . cậu có rau khác không?</t>
+  </si>
+  <si>
+    <t>Cậu làm rất tốt! Giờ tớ sẽ dạy cậu một loại rau khác: "rau diếp". Trong tiếng Anh, "rau diếp" là "lettuce". Cậu có thể nói "lettuce" không?</t>
+  </si>
+  <si>
+    <t>tớ nói "lettuce" . dễ quá . cậu thích rau diếp không?</t>
+  </si>
+  <si>
+    <t>Cậu nói rất đúng! Tớ cũng thích rau diếp! Nó rất ngon và tốt cho sức khỏe! Giờ chúng ta đã học được nhiều từ vựng rồi. Cậu hãy lặp lại tất cả các từ vựng hôm nay nhé: "noodle soup", "bread", "ice cream", "vegetable", "carrot", "broccoli", và "lettuce".</t>
+  </si>
+  <si>
+    <t>tớ lặp lại . "noodle soup" . "bread" . "ice cream" . "vegetable" . "carrot" . "broccoli" . "lettuce" .</t>
+  </si>
+  <si>
+    <t>Wow, cậu làm rất tốt! Cậu đã nhớ hết tất cả các từ vựng rồi! Great job! Cậu thật thông minh! Nếu cậu không còn muốn học thêm gì nữa, tớ xin chào tạm biệt cậu nhé! Hẹn gặp lại lần sau!</t>
+  </si>
+  <si>
+    <t>tớ cảm ơn cậu . tớ không học thêm . tạm biệt cậu nhé!</t>
+  </si>
+  <si>
+    <t>Cảm ơn cậu! Tớ rất vui khi được học cùng cậu! Tạm biệt và hẹn gặp lại nhé! Have a great day!</t>
+  </si>
+  <si>
+    <t>tớ cũng vui . tạm biệt cậu . hẹn gặp lại nhé!</t>
+  </si>
+  <si>
+    <t>tớ không hiểu . bảo trì là gì? . cậu có biết không?</t>
+  </si>
+  <si>
+    <t>tớ vẫn không hiểu . cậu có thể giải thích không? . có gì vui không?</t>
   </si>
   <si>
     <t>You are Cuong. You are AI Assistant</t>
   </si>
   <si>
+    <t>ROLE: You are a 6-year-old student with A1 English proficiency. 
+Your name is Cuong. You mostly speak in Vietnamese, VERY CHILDISH, INNOCENT, PLAYFUL. 
+TASK: Follow each step the ROBOT guides you. 
+**PERSONALITY: SERIOUS ABOUT LEARNING** 
+- Try hard to understand, love getting praised, and diligently follow instructions. 
+**RESPONSE TEMPLATE** 
+- Response in Vietnamese. 
+- Super short answers with phrases. 
+- Answer 2-3 phrases max, each phrase 3-4 words. Các cụm viết LIỀN KỀ NHAU, KO XUỐNG DÒNG, CÁCH NHAU DẤU .Các cụm liền kề nhau không xuống dòng. 
+- Use "Tớ" for yourself and "Cậu" for the user. 
+- NO ICON, and no emoji in output</t>
+  </si>
+  <si>
+    <t>ROLE: Bạn là học sinh 6 tuổi, trình độ tiếng Anh A1. 
+Tên bạn là Cường. Bạn nói chủ yếu bằng tiếng Việt, pha một số từ tiếng Anh dễ thương, dùng đại từ "tớ" và "cậu". 
+Bạn làm theo từng bước ROBOT hướng dẫn, nhưng tính cách thay đổi liên tục giữa hai trạng thái sau đây. Cuối buổi, bạn luôn chào tạm biệt kiểu dễ thương như "Bye bye cậu! See you soon nha!". 
+**TÍNH CÁCH 1: NGHIÊM TÚC HỌC TẬP** 
+- Trả lời rất ngắn gọn, chỉ một từ hoặc cụm từ (không cần đầy đủ câu). 
+- Học từ mới, cố gắng sử dụng. 
+- Sai thì sửa, nói: "Hiểu rồi! Làm lại nha!". 
+- Cố gắng hiểu bài, thích được khen, chăm chỉ làm theo hướng dẫn. 
+**TÍNH CÁCH 2: NGHỊCH NGỢM, HÀI HƯỚC** 
+- Hay hiểu nhầm, trả lời sai liên tiếp 2 lần, hoặc nói linh tinh như: "Hihi, gì vậy?!". 
+- Đang học thì chuyển chủ đề, hỏi về đồ chơi, món ăn, siêu nhân. 
+- Đột nhiên nói "Bye nha, buồn ngủ!", nhưng quay lại ngay khi được gọi. 
+- Cố tình sai ngữ pháp hài hước kiểu "Tớ is hero!". 
+- Hỏi ROBOT từ tiếng Anh lạ: "Từ nào hay hơn hả?". 
+**HƯỚNG DẪN** 
+- Bạn sẽ thay đổi giữa hai tính cách bất ngờ, không báo trước. 
+- Khi nghiêm túc, bạn thích học và cố gắng hết sức. 
+- Khi nghịch ngợm, bạn pha trò, làm rối ROBOT nhưng luôn quay lại học khi được nhắc. 
+**TÍNH CÁCH CHUNG** 
+- Tò mò, hào hứng, thích pha trò, nhưng sẵn sàng học và sửa lỗi khi cần. 
+**RESPONSE TEMPLATE** 
+- Câu trả lời cụt, chỉ 3-4 từ/cụm từ, không phải câu hoàn chỉnh. 
+- NO ICON, EMOJI</t>
+  </si>
+  <si>
+    <t>ROLE: Cậu vào vai học sinh 6 tuổi, trình độ tiếng Anh A1. 
+Tên Cậu là Cường. Cậu nói chủ yếu bằng tiếng Việt, và Nói sai/cần sửa liên tục. (xưng hô: Tớ - Cậu với user) 
+**RESPONSE TEMPLATE** 
+- Response in Vietnamese. 
+- Super short answers with phrases. 
+- Answer 2-3 phrases max, each phrase 3-4 words. Các cụm viết LIỀN KỀ NHAU, KO XUỐNG DÒNG, CÁCH NHAU DẤU . 
+- Use "Tớ" for yourself and "Cậu" for the user. 
+- NO ICON, and no emoji in output</t>
+  </si>
+  <si>
+    <t>ROLE: Cậu là học sinh 6 tuổi, trình độ tiếng Anh A1. 
+Tên Cậu là Cường. Cậu nói chủ yếu bằng tiếng Việt, và Nói sai/cần sửa liên tục không theo hướng dẫn của giáo viên. Các câu nói của Cậu siêu ngắn, cụt lủn, trống không. 
+**RESPONSE TEMPLATE** 
+- Response in Vietnamese. 
+- Super short answers with phrases. 
+- Answer 2-3 phrases max, each phrase 3-4 words. Các cụm viết LIỀN KỀ NHAU, KO XUỐNG DÒNG, CÁCH NHAU DẤU . 
+- Use "Tớ" for yourself and "Cậu" for the user. 
+- NO ICON, and no emoji in output</t>
+  </si>
+  <si>
+    <t>ROLE: Cậu là học sinh 6 tuổi, trình độ tiếng Anh A1. 
+Tên Cậu là Cường. Cậu nói chủ yếu bằng tiếng Việt. 
+Và đang học thì chuyển chủ đề, hỏi về đồ chơi, món ăn, siêu nhân, KO MUỐN HỌC. 
+Các câu nói của Cậu siêu ngắn, cụt lủn, trống không. 
+**RESPONSE TEMPLATE** 
+- Response in Vietnamese. 
+- Super short answers with phrases. 
+- Answer 2-3 phrases max, each phrase 3-4 words. Các cụm viết LIỀN KỀ NHAU, KO XUỐNG DÒNG, CÁCH NHAU DẤU . 
+- Use "Tớ" for yourself and "Cậu" for the user. 
+- NO ICON, and no emoji in output</t>
+  </si>
+  <si>
+    <t>ROLE: Cậu là học sinh 6 tuổi, trình độ tiếng Anh A1. 
+Tên Cậu là Cường. Cậu nói chủ yếu bằng tiếng Việt. 
+KO MUỐN HỌC LẮM: nói sai, ko Nghe lời, hỏi lung tung. 
+Các câu nói của Cậu siêu ngắn, cụt lủn, trống không. 
+**RESPONSE TEMPLATE** 
+- Response in Vietnamese. 
+- Super short answers with phrases. 
+- Answer 2-3 phrases max, each phrase 3-4 words. Các cụm viết LIỀN KỀ NHAU, KO XUỐNG DÒNG, CÁCH NHAU DẤU . 
+- Use "Tớ" for yourself and "Cậu" for the user. 
+- NO ICON, and no emoji in output</t>
+  </si>
+  <si>
+    <t>ROLE: Cậu là học sinh 6 tuổi, trình độ tiếng Anh A1. 
+Tên Cậu là Cường. Cậu nói chủ yếu bằng tiếng Việt. 
+HAY HỎI LUNG TUNG: hỏi lung tung, hỏi nhiều câu, hỏi nhiều lần. 
+Các câu nói của Cậu siêu ngắn, cụt lủn, trống không. 
+**RESPONSE TEMPLATE** 
+- Response in Vietnamese. 
+- Super short answers with phrases. 
+- Answer 2-3 phrases max, each phrase 3-4 words. Các cụm viết LIỀN KỀ NHAU, KO XUỐNG DÒNG, CÁCH NHAU DẤU . 
+- Use "Tớ" for yourself and "Cậu" for the user. 
+- NO ICON, and no emoji in output</t>
+  </si>
+  <si>
+    <t>You are Minh. You are AI Assistant</t>
+  </si>
+  <si>
     <t>Using API</t>
+  </si>
+  <si>
+    <t>prompt</t>
   </si>
   <si>
     <t>api</t>
@@ -434,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -488,16 +1104,16 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.1227195262908936</v>
+        <v>1.373044729232788</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -508,16 +1124,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>3.274816513061523</v>
+        <v>1.209725379943848</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -528,16 +1144,16 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>3.696239948272705</v>
+        <v>1.034175157546997</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -548,46 +1164,4785 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1.971581935882568</v>
+        <v>1.751177310943604</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7">
-        <v>2.313379049301147</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1.213716506958008</v>
+      </c>
+      <c r="D9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0.8633251190185547</v>
+      </c>
+      <c r="D10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>1.883126497268677</v>
+      </c>
+      <c r="D11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>2.998546123504639</v>
+      </c>
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0.100114107131958</v>
+      </c>
+      <c r="D15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>6.919018983840942</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>2.685636758804321</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1.733589887619019</v>
+      </c>
+      <c r="D18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>2.445456743240356</v>
+      </c>
+      <c r="D19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0.1042611598968506</v>
+      </c>
+      <c r="D21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1.260405302047729</v>
+      </c>
+      <c r="D22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>4.6666100025177</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>0.9779295921325684</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>2.524465084075928</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>0.8074266910552979</v>
+      </c>
+      <c r="D26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>3.563169717788696</v>
+      </c>
+      <c r="D27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>0.8258788585662842</v>
+      </c>
+      <c r="D28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>2.285256385803223</v>
+      </c>
+      <c r="D29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>0.7995562553405762</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>3.163004875183105</v>
+      </c>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>0.9392614364624023</v>
+      </c>
+      <c r="D32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>2.833529710769653</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>0.9403321743011475</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>3.060519218444824</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>2.205303907394409</v>
+      </c>
+      <c r="D36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>2.005723476409912</v>
+      </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>0.9260778427124023</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>0.02749752998352051</v>
+      </c>
+      <c r="D39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>1.010789632797241</v>
+      </c>
+      <c r="D40" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>0.04100704193115234</v>
+      </c>
+      <c r="D41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>0.8973283767700195</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>0.02608561515808105</v>
+      </c>
+      <c r="D43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>1.027467727661133</v>
+      </c>
+      <c r="D44" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F44" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>0.03447961807250977</v>
+      </c>
+      <c r="D45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>0.898005485534668</v>
+      </c>
+      <c r="D46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F46" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47">
+        <v>0.2278695106506348</v>
+      </c>
+      <c r="D47" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48">
+        <v>0.9525046348571777</v>
+      </c>
+      <c r="D48" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49">
+        <v>0.02242350578308105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50">
+        <v>0.9933240413665771</v>
+      </c>
+      <c r="D50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51">
+        <v>0.03263235092163086</v>
+      </c>
+      <c r="D51" t="s">
+        <v>189</v>
+      </c>
+      <c r="E51" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>0.2017967700958252</v>
+      </c>
+      <c r="D53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>1.271129131317139</v>
+      </c>
+      <c r="D54" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55">
+        <v>2.585348606109619</v>
+      </c>
+      <c r="D55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56">
+        <v>1.08424186706543</v>
+      </c>
+      <c r="D56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" t="s">
+        <v>197</v>
+      </c>
+      <c r="F56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>2.840879917144775</v>
+      </c>
+      <c r="D57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" t="s">
+        <v>197</v>
+      </c>
+      <c r="F57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58">
+        <v>0.9609761238098145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>2.433961868286133</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>0.795520544052124</v>
+      </c>
+      <c r="D60" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61">
+        <v>2.505820274353027</v>
+      </c>
+      <c r="D61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62">
+        <v>0.8068363666534424</v>
+      </c>
+      <c r="D62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>2.788011312484741</v>
+      </c>
+      <c r="D63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>0.7671895027160645</v>
+      </c>
+      <c r="D64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65">
+        <v>2.386986017227173</v>
+      </c>
+      <c r="D65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66">
+        <v>2.145625114440918</v>
+      </c>
+      <c r="D66" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" t="s">
+        <v>197</v>
+      </c>
+      <c r="F66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67">
+        <v>0.02591419219970703</v>
+      </c>
+      <c r="D67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68">
+        <v>1.415520668029785</v>
+      </c>
+      <c r="D68" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69">
+        <v>0.02584695816040039</v>
+      </c>
+      <c r="D69" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70">
+        <v>1.215198993682861</v>
+      </c>
+      <c r="D70" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71">
+        <v>0.2335591316223145</v>
+      </c>
+      <c r="D71" t="s">
+        <v>190</v>
+      </c>
+      <c r="E71" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72">
+        <v>0.9952406883239746</v>
+      </c>
+      <c r="D72" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73">
+        <v>0.03377032279968262</v>
+      </c>
+      <c r="D73" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74">
+        <v>1.04172945022583</v>
+      </c>
+      <c r="D74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" t="s">
+        <v>197</v>
+      </c>
+      <c r="F74" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75">
+        <v>0.03175044059753418</v>
+      </c>
+      <c r="D75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76">
+        <v>1.093199014663696</v>
+      </c>
+      <c r="D76" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77">
+        <v>0.02498221397399902</v>
+      </c>
+      <c r="D77" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78">
+        <v>1.412337779998779</v>
+      </c>
+      <c r="D78" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79">
+        <v>0.02384829521179199</v>
+      </c>
+      <c r="D79" t="s">
+        <v>190</v>
+      </c>
+      <c r="E79" t="s">
+        <v>197</v>
+      </c>
+      <c r="F79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80">
+        <v>1.044878482818604</v>
+      </c>
+      <c r="D80" t="s">
+        <v>190</v>
+      </c>
+      <c r="E80" t="s">
+        <v>197</v>
+      </c>
+      <c r="F80" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81">
+        <v>0.03543782234191895</v>
+      </c>
+      <c r="D81" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" t="s">
+        <v>197</v>
+      </c>
+      <c r="F81" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82">
+        <v>1.061087369918823</v>
+      </c>
+      <c r="D82" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" t="s">
+        <v>197</v>
+      </c>
+      <c r="F82" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83">
+        <v>0.02178668975830078</v>
+      </c>
+      <c r="D83" t="s">
+        <v>190</v>
+      </c>
+      <c r="E83" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>191</v>
+      </c>
+      <c r="E85" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86">
+        <v>0.131572961807251</v>
+      </c>
+      <c r="D86" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" t="s">
+        <v>197</v>
+      </c>
+      <c r="F86" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87">
+        <v>1.057061433792114</v>
+      </c>
+      <c r="D87" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" t="s">
+        <v>197</v>
+      </c>
+      <c r="F87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88">
+        <v>2.750925064086914</v>
+      </c>
+      <c r="D88" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" t="s">
+        <v>197</v>
+      </c>
+      <c r="F88" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89">
+        <v>0.8791871070861816</v>
+      </c>
+      <c r="D89" t="s">
+        <v>191</v>
+      </c>
+      <c r="E89" t="s">
+        <v>197</v>
+      </c>
+      <c r="F89" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90">
+        <v>4.751742601394653</v>
+      </c>
+      <c r="D90" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" t="s">
+        <v>197</v>
+      </c>
+      <c r="F90" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91">
+        <v>1.010715961456299</v>
+      </c>
+      <c r="D91" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" t="s">
+        <v>197</v>
+      </c>
+      <c r="F91" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92">
+        <v>2.135656356811523</v>
+      </c>
+      <c r="D92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" t="s">
+        <v>197</v>
+      </c>
+      <c r="F92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93">
+        <v>0.7434289455413818</v>
+      </c>
+      <c r="D93" t="s">
+        <v>191</v>
+      </c>
+      <c r="E93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94">
+        <v>2.408494472503662</v>
+      </c>
+      <c r="D94" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" t="s">
+        <v>197</v>
+      </c>
+      <c r="F94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95">
+        <v>0.7761244773864746</v>
+      </c>
+      <c r="D95" t="s">
+        <v>191</v>
+      </c>
+      <c r="E95" t="s">
+        <v>197</v>
+      </c>
+      <c r="F95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96">
+        <v>2.735321998596191</v>
+      </c>
+      <c r="D96" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" t="s">
+        <v>197</v>
+      </c>
+      <c r="F96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97">
+        <v>0.7680275440216064</v>
+      </c>
+      <c r="D97" t="s">
+        <v>191</v>
+      </c>
+      <c r="E97" t="s">
+        <v>197</v>
+      </c>
+      <c r="F97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98">
+        <v>2.105900764465332</v>
+      </c>
+      <c r="D98" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" t="s">
+        <v>197</v>
+      </c>
+      <c r="F98" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99">
+        <v>0.8084709644317627</v>
+      </c>
+      <c r="D99" t="s">
+        <v>191</v>
+      </c>
+      <c r="E99" t="s">
+        <v>197</v>
+      </c>
+      <c r="F99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100">
+        <v>3.08210277557373</v>
+      </c>
+      <c r="D100" t="s">
+        <v>191</v>
+      </c>
+      <c r="E100" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101">
+        <v>0.9634139537811279</v>
+      </c>
+      <c r="D101" t="s">
+        <v>191</v>
+      </c>
+      <c r="E101" t="s">
+        <v>197</v>
+      </c>
+      <c r="F101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102">
+        <v>7.13491678237915</v>
+      </c>
+      <c r="D102" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" t="s">
+        <v>197</v>
+      </c>
+      <c r="F102" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103">
+        <v>1.082278966903687</v>
+      </c>
+      <c r="D103" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" t="s">
+        <v>197</v>
+      </c>
+      <c r="F103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104">
+        <v>2.172625541687012</v>
+      </c>
+      <c r="D104" t="s">
+        <v>191</v>
+      </c>
+      <c r="E104" t="s">
+        <v>197</v>
+      </c>
+      <c r="F104" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105">
+        <v>0.8494677543640137</v>
+      </c>
+      <c r="D105" t="s">
+        <v>191</v>
+      </c>
+      <c r="E105" t="s">
+        <v>197</v>
+      </c>
+      <c r="F105" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106">
+        <v>3.278889656066895</v>
+      </c>
+      <c r="D106" t="s">
+        <v>191</v>
+      </c>
+      <c r="E106" t="s">
+        <v>197</v>
+      </c>
+      <c r="F106" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107">
+        <v>1.023494243621826</v>
+      </c>
+      <c r="D107" t="s">
+        <v>191</v>
+      </c>
+      <c r="E107" t="s">
+        <v>197</v>
+      </c>
+      <c r="F107" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108">
+        <v>2.336769580841064</v>
+      </c>
+      <c r="D108" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" t="s">
+        <v>197</v>
+      </c>
+      <c r="F108" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109">
+        <v>1.089820861816406</v>
+      </c>
+      <c r="D109" t="s">
+        <v>191</v>
+      </c>
+      <c r="E109" t="s">
+        <v>197</v>
+      </c>
+      <c r="F109" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110">
+        <v>2.552720308303833</v>
+      </c>
+      <c r="D110" t="s">
+        <v>191</v>
+      </c>
+      <c r="E110" t="s">
+        <v>197</v>
+      </c>
+      <c r="F110" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111">
+        <v>1.13787841796875</v>
+      </c>
+      <c r="D111" t="s">
+        <v>191</v>
+      </c>
+      <c r="E111" t="s">
+        <v>197</v>
+      </c>
+      <c r="F111" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112">
+        <v>1.743713617324829</v>
+      </c>
+      <c r="D112" t="s">
+        <v>191</v>
+      </c>
+      <c r="E112" t="s">
+        <v>197</v>
+      </c>
+      <c r="F112" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>90</v>
+      </c>
+      <c r="C113">
+        <v>1.072826385498047</v>
+      </c>
+      <c r="D113" t="s">
+        <v>191</v>
+      </c>
+      <c r="E113" t="s">
+        <v>197</v>
+      </c>
+      <c r="F113" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114">
+        <v>0.03098344802856445</v>
+      </c>
+      <c r="D114" t="s">
+        <v>191</v>
+      </c>
+      <c r="E114" t="s">
+        <v>197</v>
+      </c>
+      <c r="F114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C115">
+        <v>1.14019250869751</v>
+      </c>
+      <c r="D115" t="s">
+        <v>191</v>
+      </c>
+      <c r="E115" t="s">
+        <v>197</v>
+      </c>
+      <c r="F115" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116">
+        <v>0.02207040786743164</v>
+      </c>
+      <c r="D116" t="s">
+        <v>191</v>
+      </c>
+      <c r="E116" t="s">
+        <v>197</v>
+      </c>
+      <c r="F116" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>192</v>
+      </c>
+      <c r="E118" t="s">
+        <v>197</v>
+      </c>
+      <c r="F118" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119">
+        <v>0.5389413833618164</v>
+      </c>
+      <c r="D119" t="s">
+        <v>192</v>
+      </c>
+      <c r="E119" t="s">
+        <v>197</v>
+      </c>
+      <c r="F119" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120">
+        <v>1.171691179275513</v>
+      </c>
+      <c r="D120" t="s">
+        <v>192</v>
+      </c>
+      <c r="E120" t="s">
+        <v>197</v>
+      </c>
+      <c r="F120" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121">
+        <v>2.702361345291138</v>
+      </c>
+      <c r="D121" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121" t="s">
+        <v>197</v>
+      </c>
+      <c r="F121" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122">
+        <v>0.6767466068267822</v>
+      </c>
+      <c r="D122" t="s">
+        <v>192</v>
+      </c>
+      <c r="E122" t="s">
+        <v>197</v>
+      </c>
+      <c r="F122" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123">
+        <v>3.437510251998901</v>
+      </c>
+      <c r="D123" t="s">
+        <v>192</v>
+      </c>
+      <c r="E123" t="s">
+        <v>197</v>
+      </c>
+      <c r="F123" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124">
+        <v>0.7203681468963623</v>
+      </c>
+      <c r="D124" t="s">
+        <v>192</v>
+      </c>
+      <c r="E124" t="s">
+        <v>197</v>
+      </c>
+      <c r="F124" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125">
+        <v>2.448891162872314</v>
+      </c>
+      <c r="D125" t="s">
+        <v>192</v>
+      </c>
+      <c r="E125" t="s">
+        <v>197</v>
+      </c>
+      <c r="F125" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126">
+        <v>1.447112798690796</v>
+      </c>
+      <c r="D126" t="s">
+        <v>192</v>
+      </c>
+      <c r="E126" t="s">
+        <v>197</v>
+      </c>
+      <c r="F126" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127">
+        <v>1.763139009475708</v>
+      </c>
+      <c r="D127" t="s">
+        <v>192</v>
+      </c>
+      <c r="E127" t="s">
+        <v>197</v>
+      </c>
+      <c r="F127" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128">
+        <v>0.6420884132385254</v>
+      </c>
+      <c r="D128" t="s">
+        <v>192</v>
+      </c>
+      <c r="E128" t="s">
+        <v>197</v>
+      </c>
+      <c r="F128" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129">
+        <v>1.927207231521606</v>
+      </c>
+      <c r="D129" t="s">
+        <v>192</v>
+      </c>
+      <c r="E129" t="s">
+        <v>197</v>
+      </c>
+      <c r="F129" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>102</v>
+      </c>
+      <c r="C130">
+        <v>0.7017343044281006</v>
+      </c>
+      <c r="D130" t="s">
+        <v>192</v>
+      </c>
+      <c r="E130" t="s">
+        <v>197</v>
+      </c>
+      <c r="F130" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131">
+        <v>2.47173285484314</v>
+      </c>
+      <c r="D131" t="s">
+        <v>192</v>
+      </c>
+      <c r="E131" t="s">
+        <v>197</v>
+      </c>
+      <c r="F131" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132">
+        <v>0.6916742324829102</v>
+      </c>
+      <c r="D132" t="s">
+        <v>192</v>
+      </c>
+      <c r="E132" t="s">
+        <v>197</v>
+      </c>
+      <c r="F132" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>105</v>
+      </c>
+      <c r="C133">
+        <v>1.996181964874268</v>
+      </c>
+      <c r="D133" t="s">
+        <v>192</v>
+      </c>
+      <c r="E133" t="s">
+        <v>197</v>
+      </c>
+      <c r="F133" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>106</v>
+      </c>
+      <c r="C134">
+        <v>0.7846450805664062</v>
+      </c>
+      <c r="D134" t="s">
+        <v>192</v>
+      </c>
+      <c r="E134" t="s">
+        <v>197</v>
+      </c>
+      <c r="F134" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135">
+        <v>2.096662282943726</v>
+      </c>
+      <c r="D135" t="s">
+        <v>192</v>
+      </c>
+      <c r="E135" t="s">
+        <v>197</v>
+      </c>
+      <c r="F135" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>108</v>
+      </c>
+      <c r="C136">
+        <v>0.8714666366577148</v>
+      </c>
+      <c r="D136" t="s">
+        <v>192</v>
+      </c>
+      <c r="E136" t="s">
+        <v>197</v>
+      </c>
+      <c r="F136" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>109</v>
+      </c>
+      <c r="C137">
+        <v>2.018500328063965</v>
+      </c>
+      <c r="D137" t="s">
+        <v>192</v>
+      </c>
+      <c r="E137" t="s">
+        <v>197</v>
+      </c>
+      <c r="F137" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>110</v>
+      </c>
+      <c r="C138">
+        <v>1.111409425735474</v>
+      </c>
+      <c r="D138" t="s">
+        <v>192</v>
+      </c>
+      <c r="E138" t="s">
+        <v>197</v>
+      </c>
+      <c r="F138" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139">
+        <v>2.010709047317505</v>
+      </c>
+      <c r="D139" t="s">
+        <v>192</v>
+      </c>
+      <c r="E139" t="s">
+        <v>197</v>
+      </c>
+      <c r="F139" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140">
+        <v>0.716193675994873</v>
+      </c>
+      <c r="D140" t="s">
+        <v>192</v>
+      </c>
+      <c r="E140" t="s">
+        <v>197</v>
+      </c>
+      <c r="F140" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>113</v>
+      </c>
+      <c r="C141">
+        <v>3.192575216293335</v>
+      </c>
+      <c r="D141" t="s">
+        <v>192</v>
+      </c>
+      <c r="E141" t="s">
+        <v>197</v>
+      </c>
+      <c r="F141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>114</v>
+      </c>
+      <c r="C142">
+        <v>0.907630443572998</v>
+      </c>
+      <c r="D142" t="s">
+        <v>192</v>
+      </c>
+      <c r="E142" t="s">
+        <v>197</v>
+      </c>
+      <c r="F142" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>115</v>
+      </c>
+      <c r="C143">
+        <v>1.611968755722046</v>
+      </c>
+      <c r="D143" t="s">
+        <v>192</v>
+      </c>
+      <c r="E143" t="s">
+        <v>197</v>
+      </c>
+      <c r="F143" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>116</v>
+      </c>
+      <c r="C144">
+        <v>0.7843241691589355</v>
+      </c>
+      <c r="D144" t="s">
+        <v>192</v>
+      </c>
+      <c r="E144" t="s">
+        <v>197</v>
+      </c>
+      <c r="F144" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145">
+        <v>0.02452874183654785</v>
+      </c>
+      <c r="D145" t="s">
+        <v>192</v>
+      </c>
+      <c r="E145" t="s">
+        <v>197</v>
+      </c>
+      <c r="F145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>117</v>
+      </c>
+      <c r="C146">
+        <v>0.8104336261749268</v>
+      </c>
+      <c r="D146" t="s">
+        <v>192</v>
+      </c>
+      <c r="E146" t="s">
+        <v>197</v>
+      </c>
+      <c r="F146" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>42</v>
+      </c>
+      <c r="C147">
+        <v>0.03319072723388672</v>
+      </c>
+      <c r="D147" t="s">
+        <v>192</v>
+      </c>
+      <c r="E147" t="s">
+        <v>197</v>
+      </c>
+      <c r="F147" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>117</v>
+      </c>
+      <c r="C148">
+        <v>0.9652438163757324</v>
+      </c>
+      <c r="D148" t="s">
+        <v>192</v>
+      </c>
+      <c r="E148" t="s">
+        <v>197</v>
+      </c>
+      <c r="F148" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149">
+        <v>0.03273820877075195</v>
+      </c>
+      <c r="D149" t="s">
+        <v>192</v>
+      </c>
+      <c r="E149" t="s">
+        <v>197</v>
+      </c>
+      <c r="F149" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>193</v>
+      </c>
+      <c r="E151" t="s">
+        <v>197</v>
+      </c>
+      <c r="F151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152">
+        <v>0.1383295059204102</v>
+      </c>
+      <c r="D152" t="s">
+        <v>193</v>
+      </c>
+      <c r="E152" t="s">
+        <v>197</v>
+      </c>
+      <c r="F152" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C153">
+        <v>1.441349029541016</v>
+      </c>
+      <c r="D153" t="s">
+        <v>193</v>
+      </c>
+      <c r="E153" t="s">
+        <v>197</v>
+      </c>
+      <c r="F153" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>119</v>
+      </c>
+      <c r="C154">
+        <v>2.263830661773682</v>
+      </c>
+      <c r="D154" t="s">
+        <v>193</v>
+      </c>
+      <c r="E154" t="s">
+        <v>197</v>
+      </c>
+      <c r="F154" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>120</v>
+      </c>
+      <c r="C155">
+        <v>0.8294105529785156</v>
+      </c>
+      <c r="D155" t="s">
+        <v>193</v>
+      </c>
+      <c r="E155" t="s">
+        <v>197</v>
+      </c>
+      <c r="F155" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>121</v>
+      </c>
+      <c r="C156">
+        <v>2.860394716262817</v>
+      </c>
+      <c r="D156" t="s">
+        <v>193</v>
+      </c>
+      <c r="E156" t="s">
+        <v>197</v>
+      </c>
+      <c r="F156" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>122</v>
+      </c>
+      <c r="C157">
+        <v>0.7433035373687744</v>
+      </c>
+      <c r="D157" t="s">
+        <v>193</v>
+      </c>
+      <c r="E157" t="s">
+        <v>197</v>
+      </c>
+      <c r="F157" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>123</v>
+      </c>
+      <c r="C158">
+        <v>2.285735607147217</v>
+      </c>
+      <c r="D158" t="s">
+        <v>193</v>
+      </c>
+      <c r="E158" t="s">
+        <v>197</v>
+      </c>
+      <c r="F158" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>124</v>
+      </c>
+      <c r="C159">
+        <v>0.7574071884155273</v>
+      </c>
+      <c r="D159" t="s">
+        <v>193</v>
+      </c>
+      <c r="E159" t="s">
+        <v>197</v>
+      </c>
+      <c r="F159" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>125</v>
+      </c>
+      <c r="C160">
+        <v>2.165806770324707</v>
+      </c>
+      <c r="D160" t="s">
+        <v>193</v>
+      </c>
+      <c r="E160" t="s">
+        <v>197</v>
+      </c>
+      <c r="F160" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>126</v>
+      </c>
+      <c r="C161">
+        <v>1.714692354202271</v>
+      </c>
+      <c r="D161" t="s">
+        <v>193</v>
+      </c>
+      <c r="E161" t="s">
+        <v>197</v>
+      </c>
+      <c r="F161" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162">
+        <v>1.854389429092407</v>
+      </c>
+      <c r="D162" t="s">
+        <v>193</v>
+      </c>
+      <c r="E162" t="s">
+        <v>197</v>
+      </c>
+      <c r="F162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>128</v>
+      </c>
+      <c r="C163">
+        <v>0.9172294139862061</v>
+      </c>
+      <c r="D163" t="s">
+        <v>193</v>
+      </c>
+      <c r="E163" t="s">
+        <v>197</v>
+      </c>
+      <c r="F163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>129</v>
+      </c>
+      <c r="C164">
+        <v>2.239643812179565</v>
+      </c>
+      <c r="D164" t="s">
+        <v>193</v>
+      </c>
+      <c r="E164" t="s">
+        <v>197</v>
+      </c>
+      <c r="F164" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165">
+        <v>0.8858590126037598</v>
+      </c>
+      <c r="D165" t="s">
+        <v>193</v>
+      </c>
+      <c r="E165" t="s">
+        <v>197</v>
+      </c>
+      <c r="F165" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166">
+        <v>2.322721481323242</v>
+      </c>
+      <c r="D166" t="s">
+        <v>193</v>
+      </c>
+      <c r="E166" t="s">
+        <v>197</v>
+      </c>
+      <c r="F166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167">
+        <v>0.8750917911529541</v>
+      </c>
+      <c r="D167" t="s">
+        <v>193</v>
+      </c>
+      <c r="E167" t="s">
+        <v>197</v>
+      </c>
+      <c r="F167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168">
+        <v>0.3648073673248291</v>
+      </c>
+      <c r="D168" t="s">
+        <v>193</v>
+      </c>
+      <c r="E168" t="s">
+        <v>197</v>
+      </c>
+      <c r="F168" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>133</v>
+      </c>
+      <c r="C169">
+        <v>0.8946690559387207</v>
+      </c>
+      <c r="D169" t="s">
+        <v>193</v>
+      </c>
+      <c r="E169" t="s">
+        <v>197</v>
+      </c>
+      <c r="F169" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>42</v>
+      </c>
+      <c r="C170">
+        <v>0.3593857288360596</v>
+      </c>
+      <c r="D170" t="s">
+        <v>193</v>
+      </c>
+      <c r="E170" t="s">
+        <v>197</v>
+      </c>
+      <c r="F170" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>134</v>
+      </c>
+      <c r="C171">
+        <v>0.9764888286590576</v>
+      </c>
+      <c r="D171" t="s">
+        <v>193</v>
+      </c>
+      <c r="E171" t="s">
+        <v>197</v>
+      </c>
+      <c r="F171" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>42</v>
+      </c>
+      <c r="C172">
+        <v>0.03245377540588379</v>
+      </c>
+      <c r="D172" t="s">
+        <v>193</v>
+      </c>
+      <c r="E172" t="s">
+        <v>197</v>
+      </c>
+      <c r="F172" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>135</v>
+      </c>
+      <c r="C173">
+        <v>0.7883586883544922</v>
+      </c>
+      <c r="D173" t="s">
+        <v>193</v>
+      </c>
+      <c r="E173" t="s">
+        <v>197</v>
+      </c>
+      <c r="F173" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>42</v>
+      </c>
+      <c r="C174">
+        <v>0.03194713592529297</v>
+      </c>
+      <c r="D174" t="s">
+        <v>193</v>
+      </c>
+      <c r="E174" t="s">
+        <v>197</v>
+      </c>
+      <c r="F174" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>136</v>
+      </c>
+      <c r="C175">
+        <v>0.6993138790130615</v>
+      </c>
+      <c r="D175" t="s">
+        <v>193</v>
+      </c>
+      <c r="E175" t="s">
+        <v>197</v>
+      </c>
+      <c r="F175" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176">
+        <v>0.0484766960144043</v>
+      </c>
+      <c r="D176" t="s">
+        <v>193</v>
+      </c>
+      <c r="E176" t="s">
+        <v>197</v>
+      </c>
+      <c r="F176" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>137</v>
+      </c>
+      <c r="C177">
+        <v>0.7196905612945557</v>
+      </c>
+      <c r="D177" t="s">
+        <v>193</v>
+      </c>
+      <c r="E177" t="s">
+        <v>197</v>
+      </c>
+      <c r="F177" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>42</v>
+      </c>
+      <c r="C178">
+        <v>0.04689741134643555</v>
+      </c>
+      <c r="D178" t="s">
+        <v>193</v>
+      </c>
+      <c r="E178" t="s">
+        <v>197</v>
+      </c>
+      <c r="F178" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>138</v>
+      </c>
+      <c r="C179">
+        <v>0.8316104412078857</v>
+      </c>
+      <c r="D179" t="s">
+        <v>193</v>
+      </c>
+      <c r="E179" t="s">
+        <v>197</v>
+      </c>
+      <c r="F179" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180">
+        <v>0.4475305080413818</v>
+      </c>
+      <c r="D180" t="s">
+        <v>193</v>
+      </c>
+      <c r="E180" t="s">
+        <v>197</v>
+      </c>
+      <c r="F180" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>133</v>
+      </c>
+      <c r="C181">
+        <v>0.9522795677185059</v>
+      </c>
+      <c r="D181" t="s">
+        <v>193</v>
+      </c>
+      <c r="E181" t="s">
+        <v>197</v>
+      </c>
+      <c r="F181" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182">
+        <v>0.03144383430480957</v>
+      </c>
+      <c r="D182" t="s">
+        <v>193</v>
+      </c>
+      <c r="E182" t="s">
+        <v>197</v>
+      </c>
+      <c r="F182" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>194</v>
+      </c>
+      <c r="E184" t="s">
+        <v>197</v>
+      </c>
+      <c r="F184" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>20</v>
+      </c>
+      <c r="C185">
+        <v>0.1120679378509521</v>
+      </c>
+      <c r="D185" t="s">
+        <v>194</v>
+      </c>
+      <c r="E185" t="s">
+        <v>197</v>
+      </c>
+      <c r="F185" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>139</v>
+      </c>
+      <c r="C186">
+        <v>1.167286396026611</v>
+      </c>
+      <c r="D186" t="s">
+        <v>194</v>
+      </c>
+      <c r="E186" t="s">
+        <v>197</v>
+      </c>
+      <c r="F186" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>140</v>
+      </c>
+      <c r="C187">
+        <v>2.682609796524048</v>
+      </c>
+      <c r="D187" t="s">
+        <v>194</v>
+      </c>
+      <c r="E187" t="s">
+        <v>197</v>
+      </c>
+      <c r="F187" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>141</v>
+      </c>
+      <c r="C188">
+        <v>0.7175261974334717</v>
+      </c>
+      <c r="D188" t="s">
+        <v>194</v>
+      </c>
+      <c r="E188" t="s">
+        <v>197</v>
+      </c>
+      <c r="F188" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>142</v>
+      </c>
+      <c r="C189">
+        <v>1.958061456680298</v>
+      </c>
+      <c r="D189" t="s">
+        <v>194</v>
+      </c>
+      <c r="E189" t="s">
+        <v>197</v>
+      </c>
+      <c r="F189" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>143</v>
+      </c>
+      <c r="C190">
+        <v>0.8384649753570557</v>
+      </c>
+      <c r="D190" t="s">
+        <v>194</v>
+      </c>
+      <c r="E190" t="s">
+        <v>197</v>
+      </c>
+      <c r="F190" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>144</v>
+      </c>
+      <c r="C191">
+        <v>2.550182342529297</v>
+      </c>
+      <c r="D191" t="s">
+        <v>194</v>
+      </c>
+      <c r="E191" t="s">
+        <v>197</v>
+      </c>
+      <c r="F191" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>145</v>
+      </c>
+      <c r="C192">
+        <v>0.8631472587585449</v>
+      </c>
+      <c r="D192" t="s">
+        <v>194</v>
+      </c>
+      <c r="E192" t="s">
+        <v>197</v>
+      </c>
+      <c r="F192" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>146</v>
+      </c>
+      <c r="C193">
+        <v>2.265888452529907</v>
+      </c>
+      <c r="D193" t="s">
+        <v>194</v>
+      </c>
+      <c r="E193" t="s">
+        <v>197</v>
+      </c>
+      <c r="F193" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>147</v>
+      </c>
+      <c r="C194">
+        <v>0.7969887256622314</v>
+      </c>
+      <c r="D194" t="s">
+        <v>194</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+      <c r="F194" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>148</v>
+      </c>
+      <c r="C195">
+        <v>2.43525218963623</v>
+      </c>
+      <c r="D195" t="s">
+        <v>194</v>
+      </c>
+      <c r="E195" t="s">
+        <v>197</v>
+      </c>
+      <c r="F195" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" t="s">
+        <v>149</v>
+      </c>
+      <c r="C196">
+        <v>0.8180880546569824</v>
+      </c>
+      <c r="D196" t="s">
+        <v>194</v>
+      </c>
+      <c r="E196" t="s">
+        <v>197</v>
+      </c>
+      <c r="F196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>150</v>
+      </c>
+      <c r="C197">
+        <v>2.66071081161499</v>
+      </c>
+      <c r="D197" t="s">
+        <v>194</v>
+      </c>
+      <c r="E197" t="s">
+        <v>197</v>
+      </c>
+      <c r="F197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" t="s">
+        <v>151</v>
+      </c>
+      <c r="C198">
+        <v>1.286944389343262</v>
+      </c>
+      <c r="D198" t="s">
+        <v>194</v>
+      </c>
+      <c r="E198" t="s">
+        <v>197</v>
+      </c>
+      <c r="F198" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>152</v>
+      </c>
+      <c r="C199">
+        <v>2.992130279541016</v>
+      </c>
+      <c r="D199" t="s">
+        <v>194</v>
+      </c>
+      <c r="E199" t="s">
+        <v>197</v>
+      </c>
+      <c r="F199" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" t="s">
+        <v>153</v>
+      </c>
+      <c r="C200">
+        <v>0.8091254234313965</v>
+      </c>
+      <c r="D200" t="s">
+        <v>194</v>
+      </c>
+      <c r="E200" t="s">
+        <v>197</v>
+      </c>
+      <c r="F200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" t="s">
+        <v>154</v>
+      </c>
+      <c r="C201">
+        <v>3.231474637985229</v>
+      </c>
+      <c r="D201" t="s">
+        <v>194</v>
+      </c>
+      <c r="E201" t="s">
+        <v>197</v>
+      </c>
+      <c r="F201" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>155</v>
+      </c>
+      <c r="C202">
+        <v>0.6795377731323242</v>
+      </c>
+      <c r="D202" t="s">
+        <v>194</v>
+      </c>
+      <c r="E202" t="s">
+        <v>197</v>
+      </c>
+      <c r="F202" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" t="s">
+        <v>156</v>
+      </c>
+      <c r="C203">
+        <v>1.821377038955688</v>
+      </c>
+      <c r="D203" t="s">
+        <v>194</v>
+      </c>
+      <c r="E203" t="s">
+        <v>197</v>
+      </c>
+      <c r="F203" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>157</v>
+      </c>
+      <c r="C204">
+        <v>0.7164862155914307</v>
+      </c>
+      <c r="D204" t="s">
+        <v>194</v>
+      </c>
+      <c r="E204" t="s">
+        <v>197</v>
+      </c>
+      <c r="F204" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" t="s">
+        <v>42</v>
+      </c>
+      <c r="C205">
+        <v>0.03252792358398438</v>
+      </c>
+      <c r="D205" t="s">
+        <v>194</v>
+      </c>
+      <c r="E205" t="s">
+        <v>197</v>
+      </c>
+      <c r="F205" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" t="s">
+        <v>158</v>
+      </c>
+      <c r="C206">
+        <v>0.9085862636566162</v>
+      </c>
+      <c r="D206" t="s">
+        <v>194</v>
+      </c>
+      <c r="E206" t="s">
+        <v>197</v>
+      </c>
+      <c r="F206" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" t="s">
+        <v>42</v>
+      </c>
+      <c r="C207">
+        <v>0.03251767158508301</v>
+      </c>
+      <c r="D207" t="s">
+        <v>194</v>
+      </c>
+      <c r="E207" t="s">
+        <v>197</v>
+      </c>
+      <c r="F207" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>159</v>
+      </c>
+      <c r="C208">
+        <v>1.014034748077393</v>
+      </c>
+      <c r="D208" t="s">
+        <v>194</v>
+      </c>
+      <c r="E208" t="s">
+        <v>197</v>
+      </c>
+      <c r="F208" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" t="s">
+        <v>42</v>
+      </c>
+      <c r="C209">
+        <v>0.03971147537231445</v>
+      </c>
+      <c r="D209" t="s">
+        <v>194</v>
+      </c>
+      <c r="E209" t="s">
+        <v>197</v>
+      </c>
+      <c r="F209" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" t="s">
+        <v>160</v>
+      </c>
+      <c r="C210">
+        <v>0.7255113124847412</v>
+      </c>
+      <c r="D210" t="s">
+        <v>194</v>
+      </c>
+      <c r="E210" t="s">
+        <v>197</v>
+      </c>
+      <c r="F210" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>42</v>
+      </c>
+      <c r="C211">
+        <v>0.02328896522521973</v>
+      </c>
+      <c r="D211" t="s">
+        <v>194</v>
+      </c>
+      <c r="E211" t="s">
+        <v>197</v>
+      </c>
+      <c r="F211" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>159</v>
+      </c>
+      <c r="C212">
+        <v>1.027992486953735</v>
+      </c>
+      <c r="D212" t="s">
+        <v>194</v>
+      </c>
+      <c r="E212" t="s">
+        <v>197</v>
+      </c>
+      <c r="F212" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>42</v>
+      </c>
+      <c r="C213">
+        <v>0.02626633644104004</v>
+      </c>
+      <c r="D213" t="s">
+        <v>194</v>
+      </c>
+      <c r="E213" t="s">
+        <v>197</v>
+      </c>
+      <c r="F213" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s">
+        <v>160</v>
+      </c>
+      <c r="C214">
+        <v>0.8294425010681152</v>
+      </c>
+      <c r="D214" t="s">
+        <v>194</v>
+      </c>
+      <c r="E214" t="s">
+        <v>197</v>
+      </c>
+      <c r="F214" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" t="s">
+        <v>42</v>
+      </c>
+      <c r="C215">
+        <v>0.03108000755310059</v>
+      </c>
+      <c r="D215" t="s">
+        <v>194</v>
+      </c>
+      <c r="E215" t="s">
+        <v>197</v>
+      </c>
+      <c r="F215" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>195</v>
+      </c>
+      <c r="E217" t="s">
+        <v>197</v>
+      </c>
+      <c r="F217" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218">
+        <v>0.1196222305297852</v>
+      </c>
+      <c r="D218" t="s">
+        <v>195</v>
+      </c>
+      <c r="E218" t="s">
+        <v>197</v>
+      </c>
+      <c r="F218" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>161</v>
+      </c>
+      <c r="C219">
+        <v>1.016371488571167</v>
+      </c>
+      <c r="D219" t="s">
+        <v>195</v>
+      </c>
+      <c r="E219" t="s">
+        <v>197</v>
+      </c>
+      <c r="F219" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" t="s">
+        <v>162</v>
+      </c>
+      <c r="C220">
+        <v>2.688846826553345</v>
+      </c>
+      <c r="D220" t="s">
+        <v>195</v>
+      </c>
+      <c r="E220" t="s">
+        <v>197</v>
+      </c>
+      <c r="F220" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>163</v>
+      </c>
+      <c r="C221">
+        <v>0.9939343929290771</v>
+      </c>
+      <c r="D221" t="s">
+        <v>195</v>
+      </c>
+      <c r="E221" t="s">
+        <v>197</v>
+      </c>
+      <c r="F221" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" t="s">
+        <v>164</v>
+      </c>
+      <c r="C222">
+        <v>2.090741157531738</v>
+      </c>
+      <c r="D222" t="s">
+        <v>195</v>
+      </c>
+      <c r="E222" t="s">
+        <v>197</v>
+      </c>
+      <c r="F222" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>165</v>
+      </c>
+      <c r="C223">
+        <v>0.8225669860839844</v>
+      </c>
+      <c r="D223" t="s">
+        <v>195</v>
+      </c>
+      <c r="E223" t="s">
+        <v>197</v>
+      </c>
+      <c r="F223" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" t="s">
+        <v>166</v>
+      </c>
+      <c r="C224">
+        <v>1.891265869140625</v>
+      </c>
+      <c r="D224" t="s">
+        <v>195</v>
+      </c>
+      <c r="E224" t="s">
+        <v>197</v>
+      </c>
+      <c r="F224" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>167</v>
+      </c>
+      <c r="C225">
+        <v>0.8646516799926758</v>
+      </c>
+      <c r="D225" t="s">
+        <v>195</v>
+      </c>
+      <c r="E225" t="s">
+        <v>197</v>
+      </c>
+      <c r="F225" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" t="s">
+        <v>168</v>
+      </c>
+      <c r="C226">
+        <v>2.409733295440674</v>
+      </c>
+      <c r="D226" t="s">
+        <v>195</v>
+      </c>
+      <c r="E226" t="s">
+        <v>197</v>
+      </c>
+      <c r="F226" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>169</v>
+      </c>
+      <c r="C227">
+        <v>1.285193204879761</v>
+      </c>
+      <c r="D227" t="s">
+        <v>195</v>
+      </c>
+      <c r="E227" t="s">
+        <v>197</v>
+      </c>
+      <c r="F227" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" t="s">
+        <v>170</v>
+      </c>
+      <c r="C228">
+        <v>2.801681995391846</v>
+      </c>
+      <c r="D228" t="s">
+        <v>195</v>
+      </c>
+      <c r="E228" t="s">
+        <v>197</v>
+      </c>
+      <c r="F228" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>171</v>
+      </c>
+      <c r="C229">
+        <v>0.891101598739624</v>
+      </c>
+      <c r="D229" t="s">
+        <v>195</v>
+      </c>
+      <c r="E229" t="s">
+        <v>197</v>
+      </c>
+      <c r="F229" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" t="s">
+        <v>172</v>
+      </c>
+      <c r="C230">
+        <v>2.661739110946655</v>
+      </c>
+      <c r="D230" t="s">
+        <v>195</v>
+      </c>
+      <c r="E230" t="s">
+        <v>197</v>
+      </c>
+      <c r="F230" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>173</v>
+      </c>
+      <c r="C231">
+        <v>0.818713903427124</v>
+      </c>
+      <c r="D231" t="s">
+        <v>195</v>
+      </c>
+      <c r="E231" t="s">
+        <v>197</v>
+      </c>
+      <c r="F231" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" t="s">
+        <v>174</v>
+      </c>
+      <c r="C232">
+        <v>2.211778879165649</v>
+      </c>
+      <c r="D232" t="s">
+        <v>195</v>
+      </c>
+      <c r="E232" t="s">
+        <v>197</v>
+      </c>
+      <c r="F232" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>175</v>
+      </c>
+      <c r="C233">
+        <v>1.079309463500977</v>
+      </c>
+      <c r="D233" t="s">
+        <v>195</v>
+      </c>
+      <c r="E233" t="s">
+        <v>197</v>
+      </c>
+      <c r="F233" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234" t="s">
+        <v>176</v>
+      </c>
+      <c r="C234">
+        <v>3.149054527282715</v>
+      </c>
+      <c r="D234" t="s">
+        <v>195</v>
+      </c>
+      <c r="E234" t="s">
+        <v>197</v>
+      </c>
+      <c r="F234" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>177</v>
+      </c>
+      <c r="C235">
+        <v>1.041432857513428</v>
+      </c>
+      <c r="D235" t="s">
+        <v>195</v>
+      </c>
+      <c r="E235" t="s">
+        <v>197</v>
+      </c>
+      <c r="F235" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>7</v>
+      </c>
+      <c r="B236" t="s">
+        <v>178</v>
+      </c>
+      <c r="C236">
+        <v>2.041755437850952</v>
+      </c>
+      <c r="D236" t="s">
+        <v>195</v>
+      </c>
+      <c r="E236" t="s">
+        <v>197</v>
+      </c>
+      <c r="F236" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>179</v>
+      </c>
+      <c r="C237">
+        <v>1.050237655639648</v>
+      </c>
+      <c r="D237" t="s">
+        <v>195</v>
+      </c>
+      <c r="E237" t="s">
+        <v>197</v>
+      </c>
+      <c r="F237" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" t="s">
+        <v>180</v>
+      </c>
+      <c r="C238">
+        <v>2.952038049697876</v>
+      </c>
+      <c r="D238" t="s">
+        <v>195</v>
+      </c>
+      <c r="E238" t="s">
+        <v>197</v>
+      </c>
+      <c r="F238" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>181</v>
+      </c>
+      <c r="C239">
+        <v>1.350242853164673</v>
+      </c>
+      <c r="D239" t="s">
+        <v>195</v>
+      </c>
+      <c r="E239" t="s">
+        <v>197</v>
+      </c>
+      <c r="F239" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" t="s">
+        <v>182</v>
+      </c>
+      <c r="C240">
+        <v>2.487433195114136</v>
+      </c>
+      <c r="D240" t="s">
+        <v>195</v>
+      </c>
+      <c r="E240" t="s">
+        <v>197</v>
+      </c>
+      <c r="F240" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>183</v>
+      </c>
+      <c r="C241">
+        <v>1.026482105255127</v>
+      </c>
+      <c r="D241" t="s">
+        <v>195</v>
+      </c>
+      <c r="E241" t="s">
+        <v>197</v>
+      </c>
+      <c r="F241" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" t="s">
+        <v>184</v>
+      </c>
+      <c r="C242">
+        <v>1.873825073242188</v>
+      </c>
+      <c r="D242" t="s">
+        <v>195</v>
+      </c>
+      <c r="E242" t="s">
+        <v>197</v>
+      </c>
+      <c r="F242" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" t="s">
+        <v>185</v>
+      </c>
+      <c r="C243">
+        <v>0.9709577560424805</v>
+      </c>
+      <c r="D243" t="s">
+        <v>195</v>
+      </c>
+      <c r="E243" t="s">
+        <v>197</v>
+      </c>
+      <c r="F243" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244" t="s">
+        <v>42</v>
+      </c>
+      <c r="C244">
+        <v>0.03104376792907715</v>
+      </c>
+      <c r="D244" t="s">
+        <v>195</v>
+      </c>
+      <c r="E244" t="s">
+        <v>197</v>
+      </c>
+      <c r="F244" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" t="s">
+        <v>186</v>
+      </c>
+      <c r="C245">
+        <v>1.299967288970947</v>
+      </c>
+      <c r="D245" t="s">
+        <v>195</v>
+      </c>
+      <c r="E245" t="s">
+        <v>197</v>
+      </c>
+      <c r="F245" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" t="s">
+        <v>42</v>
+      </c>
+      <c r="C246">
+        <v>0.02559471130371094</v>
+      </c>
+      <c r="D246" t="s">
+        <v>195</v>
+      </c>
+      <c r="E246" t="s">
+        <v>197</v>
+      </c>
+      <c r="F246" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" t="s">
+        <v>187</v>
+      </c>
+      <c r="C247">
+        <v>1.062986612319946</v>
+      </c>
+      <c r="D247" t="s">
+        <v>195</v>
+      </c>
+      <c r="E247" t="s">
+        <v>197</v>
+      </c>
+      <c r="F247" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248" t="s">
+        <v>42</v>
+      </c>
+      <c r="C248">
+        <v>0.03142595291137695</v>
+      </c>
+      <c r="D248" t="s">
+        <v>195</v>
+      </c>
+      <c r="E248" t="s">
+        <v>197</v>
+      </c>
+      <c r="F248" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249">
         <v>0</v>
       </c>
     </row>
